--- a/data-raw/RMRP_2021_AI_partners.xlsx
+++ b/data-raw/RMRP_2021_AI_partners.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I259"/>
+  <dimension ref="A1:I267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,22 +407,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORG156</t>
+          <t>ORG208</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patronage of Social Protection of Tulcan</t>
+          <t>Asociación de venezolanos en la República argentina (ASOVEN)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Patronato de Amparo Social de Tulcán</t>
+          <t>Asociación de venezolanos en la República argentina (ASOVEN)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>ASOVEN</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -435,39 +435,34 @@
           <t>No</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORG171</t>
+          <t>ORG011</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Solidarity and Action Asociation</t>
+          <t>Argentine Catholic Migration Commission Foundation (FCCAM)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Asociación Solidaridad y Acción</t>
+          <t>Fundación Comisión Católica Argentina de Migraciones (FCCAM)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ASA</t>
+          <t>FCCAM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -475,34 +470,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORG173</t>
+          <t>ORG259</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kimirina Coorporation</t>
+          <t>Alianza por Venezuela</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kimirina Coorporation</t>
+          <t>Alianza por Venezuela</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kimirina</t>
+          <t>Alianza por Venezuela</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -517,32 +507,32 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Southern cone</t>
         </is>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORG252</t>
+          <t>ORG128</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Development and Self-Managment Center</t>
+          <t>Venex Curacao Foundation</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Centro de Desarrollo y Autogestión</t>
+          <t>Fundación Venex Curacao</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DYA</t>
+          <t>VenexCur</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -555,39 +545,39 @@
           <t>No</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORG253</t>
+          <t>ORG143</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Scalabrini Foundation Chile</t>
+          <t>I know my rights</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fundacion Scalabrini Chile</t>
+          <t>Conozco mis derechos</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>IKMR</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Scalabrini Foundation Chile</t>
+          <t>IKMR</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -595,34 +585,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Chile</t>
-        </is>
-      </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORG001</t>
+          <t>ORG192</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>100% Diversidad y Derechos</t>
+          <t>Centro Familiar Familias Sin Fronteras – Fundación Familia Sin Fronteras</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>100% Diversidad y Derechos</t>
+          <t>Centro Familiar Familias Sin Fronteras – Fundación Familia Sin Fronteras</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>100% Diversidad y Derechos</t>
+          <t>CEFAMM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -642,27 +627,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORG002</t>
+          <t>ORG132</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ACAPS</t>
+          <t>World Food Programme (WFP)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ACAPS</t>
+          <t>Programa Mundial de Alimentos (PMA)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ACAPS</t>
+          <t>WFP</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -682,27 +667,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORG003</t>
+          <t>ORG088</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ACTED</t>
+          <t>Pastoral of Human Mobility - Peruvian Episcopal Conference</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ACTED</t>
+          <t>Pastoral de Movilidad Humana - Conferencia Episcopal Peruana</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ACTED</t>
+          <t>Pastoral of Human Mobility - Peruvian Episcopal Conference</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -717,27 +702,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORG004</t>
+          <t>ORG148</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Action against Hunger</t>
+          <t>United Nations Programme for Human Settlements (UN Habitat)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Acción contra el Hambre</t>
+          <t>Programa de las Naciones Unidas para los Asentamientos Humanos (UN Habitat)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Programa das Nações Unidas para Assentamentos Humanos (UN Habitat)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ACF</t>
+          <t>UN Habitat</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -752,37 +742,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORG005</t>
+          <t>ORG181</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ActionAid</t>
+          <t>Más Igualdad Perú</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ayuda en Acción</t>
+          <t>Más Igualdad Perú</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ActionAid</t>
+          <t>Más Igualdad Perú</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Regional</t>
         </is>
       </c>
       <c r="I11">
@@ -792,27 +777,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORG006</t>
+          <t>ORG226</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Adventist Development and Relief Agency (ADRA)</t>
+          <t>Sección Peruana de Amnistía Internacional</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Agencia Adventista de Desarollo y Recursos Asistenciales (ADRA)</t>
+          <t>Sección Peruana de Amnistía Internacional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ADRA</t>
+          <t>Amnistía Internacional Perú</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -827,27 +812,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORG007</t>
+          <t>ORG022</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AID FOR AIDS</t>
+          <t>Caritas Peru</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AID FOR AIDS</t>
+          <t>Cáritas Perú</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AID FOR AIDS</t>
+          <t>Caritas Peru</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -862,22 +847,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORG008</t>
+          <t>ORG179</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AIDS Healthcare Foundation (AHF)</t>
+          <t>Danielle’s Children Fund (DCF)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AIDS Healthcare Foundation</t>
+          <t>DCF (Danielle’s Children Fund)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AHF</t>
+          <t>DCF</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -887,7 +872,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I14">
@@ -897,27 +887,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORG009</t>
+          <t>ORG043</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Alas de Colibrí Foundation</t>
+          <t>Doctors of the World</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fundación Alas de Colibrí</t>
+          <t>Médicos del Mundo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Alas de Colibrí Foundation</t>
+          <t>Doctors of the World</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -932,32 +922,37 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORG010</t>
+          <t>ORG116</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Americares Foundation</t>
+          <t>United Nations Entity for Gender Equality and the Empowerment of Women (UNWOMEN)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fundación Americares</t>
+          <t>Entidad de las Naciones Unidas para la Igualdad de Género y el Empoderamiento de las Mujeres</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Americares Foundation</t>
+          <t>UNWOMEN</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I16">
@@ -967,27 +962,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ORG011</t>
+          <t>ORG013</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Argentine Catholic Migration Commission Foundation (FCCAM)</t>
+          <t>AVSI Foundation</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fundación Comisión Católica Argentina de Migraciones (FCCAM)</t>
+          <t>Fundación AVSI</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FCCAM</t>
+          <t>AVSI</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1002,22 +997,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ORG012</t>
+          <t>ORG160</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Argentine Commission for Refugees and Migrants (CAREF)</t>
+          <t>Fundación Casa de Refugio Matilde</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Comisión Argentina para Refugiados y Migrantes (CAREF)</t>
+          <t>Fundación Casa de Refugio Matilde</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CAREF</t>
+          <t>Fundación Casa de Refugio Matilde</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1037,27 +1032,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ORG013</t>
+          <t>ORG016</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AVSI Foundation</t>
+          <t>Bolivarian Society of Curaçao</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fundación AVSI</t>
+          <t>Sociedad Bolivariana de Curaçao</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>AVSI</t>
+          <t>Sociedad Bolivariana de Curaçao</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1072,27 +1067,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORG014</t>
+          <t>ORG201</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bethany Christian Services</t>
+          <t>Churún Merú Association</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Bethany Christian Services</t>
+          <t>Asociación Churún Merú</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Bethany Christian Services</t>
+          <t>Churún Merú</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Civil Society</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1107,22 +1102,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ORG015</t>
+          <t>ORG007</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Blumont</t>
+          <t>AID FOR AIDS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Blumont</t>
+          <t>AID FOR AIDS</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Blumont</t>
+          <t>AID FOR AIDS</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1142,27 +1137,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ORG016</t>
+          <t>ORG182</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bolivarian Society of Curaçao</t>
+          <t>HELVETAS Swiss Intercooperation</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sociedad Bolivariana de Curaçao</t>
+          <t>HELVETAS Swiss Intercooperation</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sociedad Bolivariana de Curaçao</t>
+          <t>HELVETAS</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1177,22 +1172,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ORG017</t>
+          <t>ORG234</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CARE</t>
+          <t>ACT Alliance</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CARE</t>
+          <t>ACT Alianza</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CARE</t>
+          <t>ACT Alianza</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1202,12 +1197,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I23">
@@ -1217,27 +1207,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ORG018</t>
+          <t>ORG086</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Caritas Bolivia</t>
+          <t>Panamerican Development Foundation (FUPAD)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cáritas Bolivia</t>
+          <t>Fundación Panamericana para el Desarrollo (FUPAD)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Caritas Bolivia</t>
+          <t>FUPAD</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1252,22 +1242,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ORG019</t>
+          <t>ORG067</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Caritas Brazil</t>
+          <t>Jesuit Migrant Service (JMS)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cáritas Brasil</t>
+          <t>Servicio Jesuita a Migrantes (SJM)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Caritas Brazil</t>
+          <t>JMS</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1287,27 +1277,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ORG020</t>
+          <t>ORG231</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Vicaría de Pastoral Social Caritas</t>
+          <t>We World GVC</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Vicaría de Pastoral Social Caritas</t>
+          <t>We World GVC</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Vicaría de Pastoral Social Caritas</t>
+          <t>WWGVC</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1322,27 +1312,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ORG021</t>
+          <t>ORG166</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Caritas Germany</t>
+          <t>Casa Cemisol</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cáritas Alemania</t>
+          <t>Casa Cemisol</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Caritas Germany</t>
+          <t>Casa Cemisol</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1357,27 +1347,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ORG022</t>
+          <t>ORG081</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Caritas Peru</t>
+          <t>Nice Institute</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cáritas Perú</t>
+          <t>Instituto Nice</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Caritas Peru</t>
+          <t>Nice Institute</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1392,22 +1382,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ORG023</t>
+          <t>ORG189</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Caritas Rio de Janeiro</t>
+          <t>Mision Scalabriniana - Ecuador</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cáritas Rio de Janeiro</t>
+          <t>Mision Scalabriniana - Ecuador</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Caritas Rio de Janeiro</t>
+          <t>Mision Scalabriniana - Ecuador</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1427,27 +1417,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ORG024</t>
+          <t>ORG222</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Caritas São Paulo</t>
+          <t>Medical Teams International</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cáritas São Paulo</t>
+          <t>Medical Teams International</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Caritas São Paulo</t>
+          <t>Medical Teams International</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1462,27 +1452,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ORG025</t>
+          <t>ORG106</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Caritas Switzerland</t>
+          <t>SOS Children's Villages</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cáritas Suiza</t>
+          <t>Aldeas Infantiles SOS</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Caritas Switzerland</t>
+          <t>SOS Children's Villages</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1497,32 +1487,37 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ORG026</t>
+          <t>ORG266</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Caritas Willemstad</t>
+          <t>Institute of Natural and Cultural Heritage (IPANC)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cáritas Willemstad</t>
+          <t>Institute of Natural and Cultural Heritage (IPANC)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Caritas Willemstad</t>
+          <t>IPANC</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="I32">
@@ -1532,27 +1527,32 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ORG027</t>
+          <t>ORG145</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Catholic University of Uruguay (UCU)</t>
+          <t>Pirilampos Institute - Group of visits and voluntary actions in Roraima</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Universidad Católica del Uruguay (UCU)</t>
+          <t>Instituto Pirilampos - Grupo de visitas y acciones voluntarias en Roraima</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Instituto Pirilampos - Grupo de Visitas e Ações Voluntárias de Roraima</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>UCU</t>
+          <t>Instituto Pirilampos</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Academic</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1567,22 +1567,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ORG028</t>
+          <t>ORG104</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CCEFIRO Association</t>
+          <t>SES Foundation</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Asociación Construyendo Caminos de Esperanza Frente a la Injusticia, el Rechazo y el Olvido (CCEFIRO)</t>
+          <t>Fundación SES</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CCEFIRO</t>
+          <t>SES Foundation</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1602,27 +1602,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ORG029</t>
+          <t>ORG091</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Center for Integrated Studies and Programs for Sustainable Development (CIEDS)</t>
+          <t>Project Hope</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Centro de Estudios y Programas Integrados para el Desarrollo Sostenible (CIEDS)</t>
+          <t>Fundación “Project Hope of Colombia”</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CIEDS</t>
+          <t>Project Hope</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1637,22 +1637,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ORG030</t>
+          <t>ORG112</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Center for Migration and Human Rights of the Diocese of Roraima (CMDH)</t>
+          <t>Trabajo para un Hermano Foundation</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Centro de Migración y Derechos Humanos de la Diócesis de Roraima</t>
+          <t>Fundación Solidaria Trabajo para un Hermano</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CMDH</t>
+          <t>Trabajo para un Hermano Foundation</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1672,32 +1672,37 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ORG031</t>
+          <t>ORG087</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Center for Studies and Solidarity with Latin America (CESAL)</t>
+          <t>Panamerican Health Organization/World Health Organization (PAHO/WHO)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Centro de Estudios y Solidaridad con América Latina (CESAL)</t>
+          <t>Organización Panamericana de la Salud/Organización Mundial de la Salud (OPS/OMS)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CESAL</t>
+          <t>PAHO/WHO</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I37">
@@ -1707,27 +1712,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ORG032</t>
+          <t>ORG217</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Charitable and Cultural Association Amigos do Noivo</t>
+          <t>Fundación de Ayuda Social de Las Iglesias Cristianas</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Asociación Caritativa y Cultural Amigos do Noivo</t>
+          <t>Fundación de Ayuda Social de Las Iglesias Cristianas</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Charitable and Cultural Association Amigos do Noivo</t>
+          <t>Fundación de Ayuda Social de Las Iglesias Cristianas</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1742,27 +1747,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ORG033</t>
+          <t>ORG185</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ChildFund International</t>
+          <t>Renacer</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ChildFund Internacional</t>
+          <t>Renacer</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ChildFund International</t>
+          <t>Renacer</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1777,32 +1782,37 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ORG034</t>
+          <t>ORG058</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Civil Association El Paso</t>
+          <t>IMPACT Initiatives (REACH)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Asociación Civil El Paso</t>
+          <t>IMPACT Initiatives (REACH)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Civil Association El Paso</t>
+          <t>REACH</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I40">
@@ -1812,22 +1822,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ORG035</t>
+          <t>ORG260</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Civil Society Forum on Health (ForoSalud)</t>
+          <t>Asociación de Psicólogos Venezolanos en Argentina</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Foro de la Sociedad Civil en Salud (ForoSalud)</t>
+          <t>Asociación de Psicólogos Venezolanos en Argentina</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ForoSalud</t>
+          <t>PSICOVEN</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1838,6 +1848,11 @@
       <c r="G41" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Southern cone</t>
         </is>
       </c>
       <c r="I41">
@@ -1847,27 +1862,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ORG036</t>
+          <t>ORG121</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Colonia Foundation of Venezuelans in the Dominican Republic (FUNCOVERD)</t>
+          <t>United Nations Office on Drugs and Crime (UNODC)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fundación Colonia de Venezuela en República Dominicana (FUNCOVERD)</t>
+          <t>Oficina de Naciones Unidas contra la Droga y el Delito (ONUDD)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FUNCOVERD</t>
+          <t>UNODC</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1882,27 +1897,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ORG037</t>
+          <t>ORG021</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ConQuito</t>
+          <t>Caritas Germany</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ConQuito</t>
+          <t>Cáritas Alemania</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ConQuito</t>
+          <t>Caritas Germany</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1917,27 +1932,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ORG038</t>
+          <t>ORG158</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>COOPI - International Cooperation Foundation</t>
+          <t>Hermanos Salesianas</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>COOPI - Cooperación Internacional</t>
+          <t>Hermanos Salesianas</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>COOPI</t>
+          <t>Hermanos Salesianas</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1952,37 +1967,32 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ORG039</t>
+          <t>ORG037</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Danish Refugee Council (DRC)</t>
+          <t>ConQuito</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Consejo Danés para los Refugiados (DRC)</t>
+          <t>ConQuito</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>DRC</t>
+          <t>ConQuito</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I45">
@@ -1992,22 +2002,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ORG040</t>
+          <t>ORG103</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Development Support Association - APOYAR</t>
+          <t>Semillas para la Democracia</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Asociación de Apoyo al Desarrollo - APOYAR</t>
+          <t>Semillas para la Democracia</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>APOYAR</t>
+          <t>Semillas para la Democracia</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2027,27 +2037,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ORG041</t>
+          <t>ORG207</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Diakonie Katastrophenhilfe</t>
+          <t>Asociacion de Jubilados y Pensionados Venezolanos en Argentina</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Diakonie Katastrophenhilfe</t>
+          <t>Asociacion de Jubilados y Pensionados Venezolanos en Argentina</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Diakonie Katastrophenhilfe</t>
+          <t>Asociacion de Jubilados y Pensionados Venezolanos en Argentina</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Civil Society</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2062,22 +2072,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ORG042</t>
+          <t>ORG164</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Diálogo Diverso</t>
+          <t>Asociación Civil de Chamos Venezolanos</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Diálogo Diverso</t>
+          <t>Asociación Civil de Chamos Venezolanos</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Diálogo Diverso</t>
+          <t>Asociación Civil de Chamos Venezolanos</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2097,27 +2107,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ORG043</t>
+          <t>ORG072</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Doctors of the World</t>
+          <t>LGBT+ Movement Brazil</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Médicos del Mundo</t>
+          <t>Movimiento LGBT+ Brasil</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Doctors of the World</t>
+          <t>LGBT+ Movement Brazil</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2132,27 +2142,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ORG044</t>
+          <t>ORG096</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Famia Planea</t>
+          <t>Red Cross Panama</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Famia Planea</t>
+          <t>Cruz Roja Panamá</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Famia Planea</t>
+          <t>Cruz Roja Panamá</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Red Cross</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2167,27 +2177,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ORG045</t>
+          <t>ORG212</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>First International Emergency and Solidarités International</t>
+          <t>Asociación Venezolana en Chile</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Première Urgence Internationale</t>
+          <t>Asociación Venezolana en Chile</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>First International Emergency and Solidarités International</t>
+          <t>Asociación Venezolana en Chile</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2202,22 +2212,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ORG046</t>
+          <t>ORG261</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Foundation of the Americas (FUDELA)</t>
+          <t>Asociación Quinta Ola</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Fundación de las Americas (FUDELA)</t>
+          <t>Asociación Quinta Ola</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FUDELA</t>
+          <t>Asociación Quinta Ola</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2228,6 +2238,11 @@
       <c r="G52" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I52">
@@ -2237,22 +2252,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ORG047</t>
+          <t>ORG154</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Fundación Huésped</t>
+          <t>Hogar de Cristo</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Fundación Huésped</t>
+          <t>Hogar de Cristo</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Fundación Huésped</t>
+          <t>Hogar de Cristo</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2272,22 +2287,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ORG048</t>
+          <t>ORG107</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Fundacion pa Hende Muhe den Dificultad (FHMD)</t>
+          <t>Stima Foundation</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Fundacion pa Hende Muhe den Dificultad (FHMD)</t>
+          <t>Fundación Stima</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FHMD</t>
+          <t>Fundashon Stima Curacao</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2307,27 +2322,32 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ORG049</t>
+          <t>ORG146</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Globalizate Radio</t>
+          <t>Internacional Canarinhos Da Amazonia Embaixadores Da Paz</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Globalizate Radio</t>
+          <t>Embajadores internacionales de Canarinhos da Amazonia por la paz</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Internacional Canarinhos Da Amazonia Embaixadores Da Paz</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Globalizate Radio</t>
+          <t>Internacional Canarinhos</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Civil Society</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2342,27 +2362,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ORG050</t>
+          <t>ORG183</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Guarulhos Human Rights Defense Center (CDDH)</t>
+          <t>Lutheran World Relief</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Centro de Defensa de los Derechos Humanos de Guarulhos (CCDH)</t>
+          <t>Lutheran World Relief</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>CCDH</t>
+          <t>LWR</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2377,22 +2397,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ORG051</t>
+          <t>ORG167</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Halü Bienestar Humano Foundation (HALU)</t>
+          <t>Casa Violeta</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Fundación Halü Bienestar Humano (HALU)</t>
+          <t>Casa Violeta</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>HALU</t>
+          <t>Casa Violeta</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2412,27 +2432,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ORG052</t>
+          <t>ORG196</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Heartland Alliance International (HAI)</t>
+          <t>Duendes y Ángeles Vinotinto República Dominicana</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Heartland Alliance International (HAI)</t>
+          <t>Duendes y Ángeles Vinotinto República Dominicana</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>HAI</t>
+          <t>Duendes Vinotinto</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2447,37 +2467,32 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ORG053</t>
+          <t>ORG027</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Hebrew Immigrant Aid Society (HIAS)</t>
+          <t>Catholic University of Uruguay (UCU)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HIAS</t>
+          <t>Universidad Católica del Uruguay (UCU)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>HIAS</t>
+          <t>UCU</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Academic</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I59">
@@ -2487,32 +2502,37 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ORG054</t>
+          <t>ORG063</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Human Rights Caribbean Foundation (HRC)</t>
+          <t>International Labour Organization (ILO)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Fundación Human Rights Caribbean (HRC)</t>
+          <t>Organización Internacional del Trabajo (OIT)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>HRC</t>
+          <t>ILO</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I60">
@@ -2522,27 +2542,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ORG055</t>
+          <t>ORG079</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Humanity &amp; Inclusion</t>
+          <t>Migrants, Refugees and Argentine Social Entrepreneurs (MIRARES)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Humanity &amp; Inclusion</t>
+          <t>Migrantes, Refugiados y Argentinos Emprendedores Sociales (MIRARES)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Humanity &amp; Inclusion</t>
+          <t>MIRARES</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2557,27 +2577,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ORG056</t>
+          <t>ORG045</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Idas y Vueltas Association</t>
+          <t>First International Emergency and Solidarités International</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Asociación Idas y Vueltas</t>
+          <t>Première Urgence Internationale</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Idas y Vueltas Association</t>
+          <t>First International Emergency and Solidarités International</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2592,77 +2612,72 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ORG057</t>
+          <t>ORG253</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>iMMAP</t>
+          <t>Scalabrini Foundation Chile</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>iMMAP</t>
+          <t>Fundacion Scalabrini Chile</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>iMMAP</t>
+          <t>Scalabrini Foundation Chile</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ORG058</t>
+          <t>ORG150</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>IMPACT Initiatives (REACH)</t>
+          <t>Corporation Minuto de Dios</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>IMPACT Initiatives (REACH)</t>
+          <t>Corporacion Minuto de Dios</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>REACH</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I64">
@@ -2672,27 +2687,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ORG059</t>
+          <t>ORG131</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Inmigrante Feliz Association</t>
+          <t>War Child</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Asociación Inmigrante Feliz</t>
+          <t>War Child</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Inmigrante Feliz Association</t>
+          <t>War Child</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2707,27 +2722,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ORG060</t>
+          <t>ORG075</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Institute for Migration and Human Rights (IMDH)</t>
+          <t>Manos Abiertas Foundation</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Instituto para las Migraciones y Derechos Humanos (IMDH)</t>
+          <t>Fundación Manos Abiertas</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>IMDH</t>
+          <t>Manos Abiertas Foundation</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2742,27 +2757,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ORG061</t>
+          <t>ORG205</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>International Committee for the Development of People (CISP)</t>
+          <t>Dominican Institute for Integrated Development</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Comité Internacional para el Desarrollo de los Pueblos (CISP)</t>
+          <t>Instituto Dominicano de Desarrollo Integral</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>CISP</t>
+          <t>Instituto Dominicano de Desarrollo Integral</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2777,32 +2792,37 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ORG062</t>
+          <t>ORG243</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>International Federation of the Red Cross (IFRC)</t>
+          <t>Instituto de Promoción del Desarrollo Solidario</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Federación Internacional de la Cruz Roja (FIRC)</t>
+          <t>Instituto de Promoción del Desarrollo Solidario</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>FIRC</t>
+          <t>INPET</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Red Cross</t>
+          <t>Civil Society</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I68">
@@ -2812,37 +2832,37 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ORG063</t>
+          <t>ORG249</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>International Labour Organization (ILO)</t>
+          <t>International Committee of the Red Cross</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Organización Internacional del Trabajo (OIT)</t>
+          <t>Comité Internacional de la Cruz Roja</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ILO</t>
+          <t>CICR</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>Red Cross</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I69">
@@ -2852,37 +2872,32 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ORG064</t>
+          <t>ORG224</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>International Organization for Migration (IOM)</t>
+          <t>Red de Investigaciones Orientadas a la Solución de Problemas en Derechos Humanos</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Organización Internacional para las Migraciones (OIM)</t>
+          <t>Red de Investigaciones Orientadas a la Solución de Problemas en Derechos Humanos</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>IOM</t>
+          <t>RIOSP DDHH</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I70">
@@ -2892,32 +2907,37 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ORG065</t>
+          <t>ORG122</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>International Rescue Committee (IRC)</t>
+          <t>United Nations Population Fund (UNFPA)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Comité Internacional de Rescate (IRC)</t>
+          <t>Fondo de Población de las Naciones Unidas (UNFPA)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>IRC</t>
+          <t>UNFPA</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I71">
@@ -2927,27 +2947,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ORG066</t>
+          <t>ORG108</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>INTERSOS</t>
+          <t>Tearfund</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>INTERSOS</t>
+          <t>Tearfund</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>INTERSOS</t>
+          <t>Tearfund</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2962,27 +2982,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ORG067</t>
+          <t>ORG111</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Jesuit Migrant Service (JMS)</t>
+          <t>The Israel Forum for International Humanitarian Aid (IsraAID)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Servicio Jesuita a Migrantes (SJM)</t>
+          <t>Foro de Israel para la Ayuda Humanitaria Internacional (IsraAID)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>JMS</t>
+          <t>IsraAID</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -2997,27 +3017,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ORG068</t>
+          <t>ORG001</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Jesuit Refugee Service (JRS)</t>
+          <t>100% Diversidad y Derechos</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Servicio Jesuita a Refugiados (SJR)</t>
+          <t>100% Diversidad y Derechos</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>JRS</t>
+          <t>100% Diversidad y Derechos</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3032,27 +3052,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ORG069</t>
+          <t>ORG203</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Jesuit Service for Migrants and Refugees (JSMR)</t>
+          <t>Terre des Hommes Lausanne</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Servicio Jesuita a Migrantes y Refugiados (SJMR)</t>
+          <t>Terre des Hommes Lausanne</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>JSMR</t>
+          <t>TDH Lausanne</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3067,37 +3087,32 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ORG070</t>
+          <t>ORG074</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Joint United Nations Programme on HIV/AIDS (UNAIDS)</t>
+          <t>Malteser International</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Programa Conjunto de las Naciones Unidas sobre el VIH/SIDA (ONUSIDA)</t>
+          <t>Malteser International</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>UNAIDS</t>
+          <t>Malteser International</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I76">
@@ -3107,67 +3122,67 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ORG071</t>
+          <t>ORG252</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Latin American Network of Non-Governmental Organizations of Persons with Disabilities and their Families (RIADIS)</t>
+          <t>Development and Self-Managment Center</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Red Latinoamericana de Organizaciones no Gubernamentales de Personas con Discapacidad y sus Familias (RIADIS)</t>
+          <t>Centro de Desarrollo y Autogestión</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>RIADIS</t>
+          <t>DYA</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ORG072</t>
+          <t>ORG102</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>LGBT+ Movement Brazil</t>
+          <t>Scalabrini International Migration Network</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Movimiento LGBT+ Brasil</t>
+          <t>Red Internacional de Migración Scalabrini</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>LGBT+ Movement Brazil</t>
+          <t>Scalabrini International Migration Network</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3182,27 +3197,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ORG073</t>
+          <t>ORG153</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Lutheran World Federation</t>
+          <t>Agricultural Cooperative Development International / Volunteers in Overseas Cooperative Assistance</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Federación Luterana Mundial</t>
+          <t>Desarrollo Cooperativo Agrícola Internacional / Voluntarios en Asistencia Cooperativa en el Extranjero</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Lutheran World Federation</t>
+          <t>ACDI/VOCA</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3217,22 +3232,22 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ORG074</t>
+          <t>ORG230</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Malteser International</t>
+          <t>Swisscontact</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Malteser International</t>
+          <t>Swisscontact</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Malteser International</t>
+          <t>Swisscontact</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3252,32 +3267,37 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ORG075</t>
+          <t>ORG114</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Manos Abiertas Foundation</t>
+          <t>United Nations Development Programme (UNDP)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Fundación Manos Abiertas</t>
+          <t>Programa de las Naciones Unidas para el Desarrollo (PNUD)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Manos Abiertas Foundation</t>
+          <t>UNDP</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I81">
@@ -3287,27 +3307,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ORG076</t>
+          <t>ORG214</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Manos Veneguayas Association</t>
+          <t>Red Cross Peru</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Asociación Manos Veneguayas</t>
+          <t>Cruz Roja Perú</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Manos Veneguayas Association</t>
+          <t>Cruz Roja Perú</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Red Cross</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3322,22 +3342,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ORG077</t>
+          <t>ORG149</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Mercy Corps</t>
+          <t>Compassion International</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Mercy Corps</t>
+          <t>Compasión internacional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Mercy Corps</t>
+          <t>Compassion International</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3357,27 +3377,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ORG078</t>
+          <t>ORG076</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Migrant Service Center (CAM)</t>
+          <t>Manos Veneguayas Association</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Centro de Atencion alMigrante (CAM)</t>
+          <t>Asociación Manos Veneguayas</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>CAM</t>
+          <t>Manos Veneguayas Association</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3392,27 +3412,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ORG079</t>
+          <t>ORG041</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Migrants, Refugees and Argentine Social Entrepreneurs (MIRARES)</t>
+          <t>Diakonie Katastrophenhilfe</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Migrantes, Refugiados y Argentinos Emprendedores Sociales (MIRARES)</t>
+          <t>Diakonie Katastrophenhilfe</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MIRARES</t>
+          <t>Diakonie Katastrophenhilfe</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3427,27 +3447,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ORG080</t>
+          <t>ORG159</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Missão Paz</t>
+          <t>Plan de vida Foundation</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Missão Paz</t>
+          <t>Fundación Pan de Vida</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Missão Paz</t>
+          <t>Fundación Pan de Vida</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3462,27 +3482,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ORG081</t>
+          <t>ORG050</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Nice Institute</t>
+          <t>Guarulhos Human Rights Defense Center (CDDH)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Instituto Nice</t>
+          <t>Centro de Defensa de los Derechos Humanos de Guarulhos (CCDH)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Nice Institute</t>
+          <t>CCDH</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3497,27 +3517,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ORG082</t>
+          <t>ORG046</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Norwegian Refugee Council (NRC)</t>
+          <t>Foundation of the Americas (FUDELA)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Consejo Noruego para los Refugiados (NRC)</t>
+          <t>Fundación de las Americas (FUDELA)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>NRC</t>
+          <t>FUDELA</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3532,27 +3552,27 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ORG083</t>
+          <t>ORG228</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Organización Fuerza Internacional de Capellanía DDHH y DIH OFICA ICC</t>
+          <t>Sesame Workshop</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Organización Fuerza Internacional de Capellanía DDHH y DIH OFICA ICC</t>
+          <t>Sesame Workshop</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Organización Fuerza Internacional de Capellanía DDHH y DIH OFICA ICC</t>
+          <t>Sesame</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3567,37 +3587,37 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ORG084</t>
+          <t>ORG113</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Organization of Ibero-American States for Education, Science and Culture (OEI)</t>
+          <t>United Nations Children's Fund (UNICEF)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Organización de Estados Iberoamericanos para la Educación, la Ciencia y la Cultura (OEI)</t>
+          <t>Fondo de las Naciones Unidas para la Infancia (UNICEF)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>OEI</t>
+          <t>UNICEF</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I90">
@@ -3607,22 +3627,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ORG085</t>
+          <t>ORG110</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>OXFAM</t>
+          <t>Terre des Hommes Italy</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>OXFAM</t>
+          <t>Terre des Hommes Italy</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>OXFAM</t>
+          <t>TDH Italy</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3642,27 +3662,27 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ORG086</t>
+          <t>ORG218</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Panamerican Development Foundation (FUPAD)</t>
+          <t>Fundación Scalabrini Bolivia</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Fundación Panamericana para el Desarrollo (FUPAD)</t>
+          <t>Fundación Scalabrini Bolivia</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>FUPAD</t>
+          <t>Fundación Scalabrini Bolivia</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3677,37 +3697,37 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ORG087</t>
+          <t>ORG246</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Panamerican Health Organization/World Health Organization (PAHO/WHO)</t>
+          <t>Encuentros SJS (Servicio Jesuita de la Solidaridad)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Organización Panamericana de la Salud/Organización Mundial de la Salud (OPS/OMS)</t>
+          <t>Encuentros SJS (Servicio Jesuita de la Solidaridad)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>PAHO/WHO</t>
+          <t>Encuentros SJS</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I93">
@@ -3717,27 +3737,27 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ORG088</t>
+          <t>ORG229</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Pastoral of Human Mobility - Peruvian Episcopal Conference</t>
+          <t>Solidarites International/Premiere Urgence Internationale (Consorcio de SI y PUI)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Pastoral de Movilidad Humana - Conferencia Episcopal Peruana</t>
+          <t>Solidarites International/Premiere Urgence Internationale (Consorcio de SI y PUI)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Pastoral of Human Mobility - Peruvian Episcopal Conference</t>
+          <t>Consorcio de SI y PUI</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -3752,37 +3772,32 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ORG089</t>
+          <t>ORG195</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Plan International</t>
+          <t>Caritas Aruba</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Plan Internacional</t>
+          <t>Cáritas Aruba</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Plan International</t>
+          <t>Caritas Aruba</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I95">
@@ -3792,22 +3807,22 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ORG090</t>
+          <t>ORG177</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Profamilia Association</t>
+          <t>Corporación Opción Legal</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Asociación Profamilia</t>
+          <t>Corporación Opción Legal</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Profamilia Association</t>
+          <t>Corporación Opción Legal</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3827,27 +3842,27 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ORG091</t>
+          <t>ORG068</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Project Hope</t>
+          <t>Jesuit Refugee Service (JRS)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Fundación “Project Hope of Colombia”</t>
+          <t>Servicio Jesuita a Refugiados (SJR)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Project Hope</t>
+          <t>JRS</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -3862,27 +3877,32 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ORG092</t>
+          <t>ORG204</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Red con Migrantes y Refugiados</t>
+          <t>Serviço Pastoral dos Migrantes do Nordeste</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Red con Migrantes y Refugiados</t>
+          <t>Serviço Pastoral dos Migrantes do Nordeste</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Serviço Pastoral dos Migrantes do Nordeste</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Red con Migrantes y Refugiados</t>
+          <t>SPM-NE</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -3897,27 +3917,27 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ORG093</t>
+          <t>ORG173</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Red Cross Argentina</t>
+          <t>Kimirina Coorporation</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Cruz Roja Argentina</t>
+          <t>Kimirina Coorporation</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Cruz Roja Argentina</t>
+          <t>Kimirina</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Red Cross</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -3925,34 +3945,39 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ORG094</t>
+          <t>ORG038</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Red Cross Colombia</t>
+          <t>COOPI - International Cooperation Foundation</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Cruz Roja Colombia</t>
+          <t>COOPI - Cooperación Internacional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Cruz Roja Colombia</t>
+          <t>COOPI</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Red Cross</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -3967,27 +3992,27 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ORG095</t>
+          <t>ORG024</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Red Cross Ecuador</t>
+          <t>Caritas São Paulo</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Cruz Roja Ecuador</t>
+          <t>Cáritas São Paulo</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Cruz Roja Ecuador</t>
+          <t>Caritas São Paulo</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Red Cross</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4002,22 +4027,22 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ORG096</t>
+          <t>ORG097</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Red Cross Panama</t>
+          <t>Red Cross Paraguay</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Cruz Roja Panamá</t>
+          <t>Cruz Roja Paraguay</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Cruz Roja Panamá</t>
+          <t>Cruz Roja Paraguay</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4037,27 +4062,27 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ORG097</t>
+          <t>ORG188</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Red Cross Paraguay</t>
+          <t>Foundation for the Integration and Development of Latin America (FIDAL)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Cruz Roja Paraguay</t>
+          <t>Fundación para la Integración y el Desarrollo de América Latina (FIDAL)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Cruz Roja Paraguay</t>
+          <t>FIDAL</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Red Cross</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4065,44 +4090,44 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ORG098</t>
+          <t>ORG235</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>RET International</t>
+          <t>COLVENZ</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>RET Internacional</t>
+          <t>COLVENZ</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>RET International</t>
+          <t>COLVENZ</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I104">
@@ -4112,32 +4137,37 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ORG099</t>
+          <t>ORG244</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Salú pa Tur Foundation</t>
+          <t>Instituto de Democracia y Derechos Humanos</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Fundación Salú pa Tur</t>
+          <t>Instituto de Democracia y Derechos Humanos</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Salú pa Tur</t>
+          <t>IDEHPUCP</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Academic</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I105">
@@ -4147,27 +4177,27 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ORG100</t>
+          <t>ORG184</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Samaritan's Purse</t>
+          <t>Consejo Interreligioso del Perú - Religiones por la Paz</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>La Bolsa del Samaritano</t>
+          <t>Consejo Interreligioso del Perú - Religiones por la Paz</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Samaritan's Purse</t>
+          <t>CIREMI</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4182,37 +4212,32 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ORG101</t>
+          <t>ORG042</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Save the Children International (SCI)</t>
+          <t>Diálogo Diverso</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Save the Children (SCI)</t>
+          <t>Diálogo Diverso</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>Diálogo Diverso</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I107">
@@ -4222,27 +4247,27 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ORG102</t>
+          <t>ORG233</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Scalabrini International Migration Network</t>
+          <t>PROBONO Colombia</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Red Internacional de Migración Scalabrini</t>
+          <t>PROBONO Colombia</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Scalabrini International Migration Network</t>
+          <t>PROBONO Colombia</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4257,32 +4282,37 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ORG103</t>
+          <t>ORG039</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Semillas para la Democracia</t>
+          <t>Danish Refugee Council (DRC)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Semillas para la Democracia</t>
+          <t>Consejo Danés para los Refugiados (DRC)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Semillas para la Democracia</t>
+          <t>DRC</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I109">
@@ -4292,22 +4322,22 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ORG104</t>
+          <t>ORG156</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SES Foundation</t>
+          <t>Patronage of Social Protection of Tulcan</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Fundación SES</t>
+          <t>Patronato de Amparo Social de Tulcán</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>SES Foundation</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4320,44 +4350,44 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ORG105</t>
+          <t>ORG100</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Social Assistance Foundation of the Christian Churches (FASIC)</t>
+          <t>Samaritan's Purse</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Fundación de Ayuda Social de las Iglesias Cristianas (FASIC)</t>
+          <t>La Bolsa del Samaritano</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>FASIC</t>
+          <t>Samaritan's Purse</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Chile</t>
         </is>
       </c>
       <c r="I111">
@@ -4367,27 +4397,27 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ORG106</t>
+          <t>ORG155</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SOS Children's Villages</t>
+          <t>Hogar de Nazareth</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Aldeas Infantiles SOS</t>
+          <t>Hogar de Nazareth</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SOS Children's Villages</t>
+          <t>Hogar de Nazareth</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4402,27 +4432,27 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ORG107</t>
+          <t>ORG049</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Stima Foundation</t>
+          <t>Globalizate Radio</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Fundación Stima</t>
+          <t>Globalizate Radio</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Fundashon Stima Curacao</t>
+          <t>Globalizate Radio</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Civil Society</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -4437,32 +4467,37 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ORG108</t>
+          <t>ORG239</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Tearfund</t>
+          <t>Progetto mondo mlal</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Tearfund</t>
+          <t>Progetto mondo mlal</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Tearfund</t>
+          <t>Progetto mondo mlal</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I114">
@@ -4472,22 +4507,22 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ORG109</t>
+          <t>ORG187</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TECHO</t>
+          <t>World Council of Credit Unions</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>TECHO</t>
+          <t>World Council of Credit Unions</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>TECHO</t>
+          <t>WOCCU</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4507,27 +4542,27 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ORG110</t>
+          <t>ORG168</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Terre des Hommes Italy</t>
+          <t>Nuestros Jóvenes Fundation</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Terre des Hommes Italy</t>
+          <t>Fundación Nuestros Jóvenes</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>TDH Italy</t>
+          <t>Fundación Nuestros Jóvenes</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4542,27 +4577,27 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ORG111</t>
+          <t>ORG034</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>The Israel Forum for International Humanitarian Aid (IsraAID)</t>
+          <t>Civil Association El Paso</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Foro de Israel para la Ayuda Humanitaria Internacional (IsraAID)</t>
+          <t>Asociación Civil El Paso</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>IsraAID</t>
+          <t>Civil Association El Paso</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4577,27 +4612,27 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ORG112</t>
+          <t>ORG012</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Trabajo para un Hermano Foundation</t>
+          <t>Argentine Commission for Refugees and Migrants (CAREF)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Fundación Solidaria Trabajo para un Hermano</t>
+          <t>Comisión Argentina para Refugiados y Migrantes (CAREF)</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Trabajo para un Hermano Foundation</t>
+          <t>CAREF</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4612,37 +4647,32 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ORG113</t>
+          <t>ORG066</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>United Nations Children's Fund (UNICEF)</t>
+          <t>INTERSOS</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Fondo de las Naciones Unidas para la Infancia (UNICEF)</t>
+          <t>INTERSOS</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>UNICEF</t>
+          <t>INTERSOS</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I119">
@@ -4652,37 +4682,32 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ORG114</t>
+          <t>ORG178</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>United Nations Development Programme (UNDP)</t>
+          <t>Vicariato apostólico de Esmeraldas – Nación de Paz (VAE)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Programa de las Naciones Unidas para el Desarrollo (PNUD)</t>
+          <t>Vicariato apostólico de Esmeraldas – Nación de Paz (VAE)</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>UNDP</t>
+          <t>VAE</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I120">
@@ -4692,37 +4717,32 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ORG115</t>
+          <t>ORG125</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>United Nations Educational, Scientific and Cultural Organization (UNESCO)</t>
+          <t>Vale da Benção Educational and Charitable Association (AEBVB)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Organización de las Naciones Unidas para la Educación, la Ciencia y la Cultura (UNESCO)</t>
+          <t>Asociación educativa y caritativa Vale da Benção (AEBVB)</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>UNESCO</t>
+          <t>AEBVB</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I121">
@@ -4732,22 +4752,22 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ORG116</t>
+          <t>ORG118</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>United Nations Entity for Gender Equality and the Empowerment of Women (UNWOMEN)</t>
+          <t>United Nations High Commissioner for Refugees (UNHCR)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Entidad de las Naciones Unidas para la Igualdad de Género y el Empoderamiento de las Mujeres</t>
+          <t>Alto Comisionado de las Naciones Unidas para los Refugiados (ACNUR)</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>UNWOMEN</t>
+          <t>UNHCR</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4772,27 +4792,27 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ORG117</t>
+          <t>ORG263</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>United Nations Food and Agricultural Organization (FAO)</t>
+          <t>Corporation for the Development of Entrepreneurship and Social Innovation</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Organización de las Naciones Unidas para la Alimentación y la Agricultura (FAO)</t>
+          <t>Corporación para el Desarrollo de Emprendimiento y la Innovación Social</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>FAO</t>
+          <t>CODEIS</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -4807,27 +4827,27 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ORG118</t>
+          <t>ORG057</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>United Nations High Commissioner for Refugees (UNHCR)</t>
+          <t>iMMAP</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Alto Comisionado de las Naciones Unidas para los Refugiados (ACNUR)</t>
+          <t>iMMAP</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>UNHCR</t>
+          <t>iMMAP</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -4847,27 +4867,27 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ORG119</t>
+          <t>ORG165</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>United Nations Office for Project Services (UNOPS)</t>
+          <t>Equidad Fundation</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Oficina de las Naciones Unidas de Servicios para Proyectos (UNOPS)</t>
+          <t>Fundación Equidad</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>UNOPS</t>
+          <t>Fundación Equidad</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -4882,37 +4902,32 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ORG120</t>
+          <t>ORG134</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>United Nations Office of the High Commissioner for Human Rights (OHCHR)</t>
+          <t>ZOA</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Oficina del Alto Comisionado de las Naciones Unidas para los Derechos Humanos (ACNUDH)</t>
+          <t>ZOA</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>OHCHR</t>
+          <t>ZOA</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I126">
@@ -4922,27 +4937,27 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ORG121</t>
+          <t>ORG026</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>United Nations Office on Drugs and Crime (UNODC)</t>
+          <t>Caritas Willemstad</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Oficina de Naciones Unidas contra la Droga y el Delito (ONUDD)</t>
+          <t>Cáritas Willemstad</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>UNODC</t>
+          <t>Caritas Willemstad</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -4957,37 +4972,32 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ORG122</t>
+          <t>ORG004</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>United Nations Population Fund (UNFPA)</t>
+          <t>Action against Hunger</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Fondo de Población de las Naciones Unidas (UNFPA)</t>
+          <t>Acción contra el Hambre</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>UNFPA</t>
+          <t>ACF</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I128">
@@ -4997,27 +5007,27 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ORG123</t>
+          <t>ORG135</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>University of Buenos Aires (UBA)</t>
+          <t>Stichting Slachtofferhulp Curaçao</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Universidad de Buenos Aires (UBA)</t>
+          <t>Stichting Slachtofferhulp Curaçao</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>UBA</t>
+          <t>Stichting Slachtofferhulp Curaçao</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Academic</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5032,27 +5042,27 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ORG124</t>
+          <t>ORG186</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>UruVene</t>
+          <t>Alianza por la Solidaridad</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>UruVene</t>
+          <t>Alianza por la Solidaridad</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>UruVene</t>
+          <t>Alianza por la Solidaridad</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5067,27 +5077,27 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ORG125</t>
+          <t>ORG020</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Vale da Benção Educational and Charitable Association (AEBVB)</t>
+          <t>Vicaría de Pastoral Social Caritas</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Asociación educativa y caritativa Vale da Benção (AEBVB)</t>
+          <t>Vicaría de Pastoral Social Caritas</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>AEBVB</t>
+          <t>Vicaría de Pastoral Social Caritas</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5102,22 +5112,22 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ORG126</t>
+          <t>ORG032</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>VenAruba Solidaria</t>
+          <t>Charitable and Cultural Association Amigos do Noivo</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>VenAruba Solidaria</t>
+          <t>Asociación Caritativa y Cultural Amigos do Noivo</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>VenAruba Solidaria</t>
+          <t>Charitable and Cultural Association Amigos do Noivo</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5137,22 +5147,22 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ORG127</t>
+          <t>ORG174</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>VenEuropa</t>
+          <t>CESVI-Cooperazione e Sviluppo</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>VenEuropa</t>
+          <t>CESVI-Cooperazione e Sviluppo</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>VenEuropa</t>
+          <t>CESVI-Cooperazione e Sviluppo</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5172,27 +5182,27 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ORG128</t>
+          <t>ORG095</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Venex Curacao Foundation</t>
+          <t>Red Cross Ecuador</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Fundación Venex Curacao</t>
+          <t>Cruz Roja Ecuador</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>VenexCur</t>
+          <t>Cruz Roja Ecuador</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Red Cross</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5207,27 +5217,27 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ORG129</t>
+          <t>ORG019</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Venezuelan Civil Association in Paraguay</t>
+          <t>Caritas Brazil</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Asociación Civil Venezolana en Paraguay</t>
+          <t>Cáritas Brasil</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Venezuelan Civil Association in Paraguay</t>
+          <t>Caritas Brazil</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -5242,22 +5252,22 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ORG130</t>
+          <t>ORG051</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Victim Support Foundation</t>
+          <t>Halü Bienestar Humano Foundation (HALU)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Fundación para Asistencia a las Víctimas</t>
+          <t>Fundación Halü Bienestar Humano (HALU)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Victim Support Foundation</t>
+          <t>HALU</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5277,22 +5287,22 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ORG131</t>
+          <t>ORG003</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>War Child</t>
+          <t>ACTED</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>War Child</t>
+          <t>ACTED</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>War Child</t>
+          <t>ACTED</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5312,37 +5322,32 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ORG132</t>
+          <t>ORG018</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>World Food Programme (WFP)</t>
+          <t>Caritas Bolivia</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Programa Mundial de Alimentos (PMA)</t>
+          <t>Cáritas Bolivia</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>WFP</t>
+          <t>Caritas Bolivia</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I138">
@@ -5352,22 +5357,22 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ORG133</t>
+          <t>ORG232</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>World Vision</t>
+          <t>Baylor’s college of medicine children foundation</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Visión Mundial</t>
+          <t>Fundación Baylor Colombia</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>World Vision</t>
+          <t>Fundación Baylor Colombia</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5377,12 +5382,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I139">
@@ -5392,22 +5392,22 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ORG134</t>
+          <t>ORG052</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ZOA</t>
+          <t>Heartland Alliance International (HAI)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ZOA</t>
+          <t>Heartland Alliance International (HAI)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ZOA</t>
+          <t>HAI</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5427,27 +5427,27 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ORG135</t>
+          <t>ORG065</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Stichting Slachtofferhulp Curaçao</t>
+          <t>International Rescue Committee (IRC)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Stichting Slachtofferhulp Curaçao</t>
+          <t>Comité Internacional de Rescate (IRC)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Stichting Slachtofferhulp Curaçao</t>
+          <t>IRC</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5462,27 +5462,27 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ORG136</t>
+          <t>ORG151</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Family Planning Association of Trinidad and Tobago</t>
+          <t>Cuso International</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Family Planning Association of Trinidad and Tobago</t>
+          <t>Cuso Internacional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>FPATT</t>
+          <t>Cuso International</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5497,37 +5497,37 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ORG137</t>
+          <t>ORG133</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ABV - Association of Good with Life</t>
+          <t>World Vision</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>ABV - Asociación del Bien con la Vida</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>ABV - Associação de Bem com a Vida</t>
+          <t>Visión Mundial</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ABV</t>
+          <t>World Vision</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I143">
@@ -5537,37 +5537,42 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ORG138</t>
+          <t>ORG256</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Caritas Manaus</t>
+          <t>Fraternity Without Borders</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Caritas Manaus</t>
+          <t>Fraternidade Sem Fronteiras</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Cáritas Manaus</t>
+          <t>Fraternidade Sem Fronteiras</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Cáritas Manaus</t>
+          <t>FWB</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I144">
@@ -5577,37 +5582,37 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ORG139</t>
+          <t>ORG101</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Caritas Parana</t>
+          <t>Save the Children International (SCI)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Caritas Parana</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Cáritas Paraná</t>
+          <t>Save the Children (SCI)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Cáritas Paraná</t>
+          <t>SCI</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I145">
@@ -5617,27 +5622,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ORG140</t>
+          <t>ORG202</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Coletivo MOSAICO - Social, Environmental, Interactive, Cultural and Organizational Movement Association</t>
+          <t>Fundación CRISFE</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Coletivo MOSAICO - Asociación del Movimiento Social, Ambiental, Interactivo, Cultural y Organizacional</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Coletivo MOSAICO - Associação Movimento Socioambiental, Interativo, Cultural e Organizacional</t>
+          <t>Fundación CRISFE</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Coletivo MOSAICO</t>
+          <t>CRISFE</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5657,27 +5657,22 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ORG141</t>
+          <t>ORG200</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Compassiva</t>
+          <t>Venezolanos en San Cristóbal</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Compassiva</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Compassiva</t>
+          <t>Venezolanos en San Cristóbal</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Compassiva</t>
+          <t>Venezolanos en San Cristóbal</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5697,32 +5692,27 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ORG142</t>
+          <t>ORG223</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>International Humanitarian Federation</t>
+          <t>Parroquia Ntra Sra Asunción y Madre de los Migrantes</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Federación internacional humanitaria</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>FFHI - Fraternidade - Federação Humanitária Internacional</t>
+          <t>Parroquia Ntra Sra Asunción y Madre de los Migrantes</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>FFHI</t>
+          <t>Parroquia Ntra Sra Asunción y Madre de los Migrantes</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5737,27 +5727,22 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ORG143</t>
+          <t>ORG044</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>I know my rights</t>
+          <t>Famia Planea</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Conozco mis derechos</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>IKMR</t>
+          <t>Famia Planea</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>IKMR</t>
+          <t>Famia Planea</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5777,37 +5762,37 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ORG144</t>
+          <t>ORG237</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Mana Institute</t>
+          <t>Sparkassenstiftung für internationale Kooperation</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Instituto de maná</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Instituto Mana</t>
+          <t>Sparkassenstiftung für internationale Kooperation</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Instituto Mana</t>
+          <t>Sparkassenstiftung</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Civil Society</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I150">
@@ -5817,27 +5802,22 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ORG145</t>
+          <t>ORG035</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Pirilampos Institute - Group of visits and voluntary actions in Roraima</t>
+          <t>Civil Society Forum on Health (ForoSalud)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Instituto Pirilampos - Grupo de visitas y acciones voluntarias en Roraima</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Instituto Pirilampos - Grupo de Visitas e Ações Voluntárias de Roraima</t>
+          <t>Foro de la Sociedad Civil en Salud (ForoSalud)</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Instituto Pirilampos</t>
+          <t>ForoSalud</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5857,27 +5837,22 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ORG146</t>
+          <t>ORG265</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Internacional Canarinhos Da Amazonia Embaixadores Da Paz</t>
+          <t>Educational Foundation Rada</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Embajadores internacionales de Canarinhos da Amazonia por la paz</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Internacional Canarinhos Da Amazonia Embaixadores Da Paz</t>
+          <t>Fundación Educativa Rada</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Internacional Canarinhos</t>
+          <t>FUNDER</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5897,32 +5872,27 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ORG147</t>
+          <t>ORG055</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Pastoral Service for Migrants National</t>
+          <t>Humanity &amp; Inclusion</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Servicio Pastoral de Migrantes Nacional</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Serviço Pastoral dos Migrantes Nacional</t>
+          <t>Humanity &amp; Inclusion</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>SPM</t>
+          <t>Humanity &amp; Inclusion</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5937,32 +5907,27 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ORG148</t>
+          <t>ORG048</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>United Nations Programme for Human Settlements (UN Habitat)</t>
+          <t>Fundacion pa Hende Muhe den Dificultad (FHMD)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Programa de las Naciones Unidas para los Asentamientos Humanos (UN Habitat)</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Programa das Nações Unidas para Assentamentos Humanos (UN Habitat)</t>
+          <t>Fundacion pa Hende Muhe den Dificultad (FHMD)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>UN Habitat</t>
+          <t>FHMD</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -5977,22 +5942,22 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ORG149</t>
+          <t>ORG077</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Compassion International</t>
+          <t>Mercy Corps</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Compasión internacional</t>
+          <t>Mercy Corps</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Compassion International</t>
+          <t>Mercy Corps</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -6012,22 +5977,22 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ORG150</t>
+          <t>ORG036</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Corporation Minuto de Dios</t>
+          <t>Colonia Foundation of Venezuelans in the Dominican Republic (FUNCOVERD)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Corporacion Minuto de Dios</t>
+          <t>Fundación Colonia de Venezuela en República Dominicana (FUNCOVERD)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>FUNCOVERD</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -6047,22 +6012,22 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ORG151</t>
+          <t>ORG175</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Cuso International</t>
+          <t>MedGlobal</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Cuso Internacional</t>
+          <t>MedGlobal</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Cuso International</t>
+          <t>MedGlobal</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -6082,27 +6047,27 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ORG152</t>
+          <t>ORG123</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>German Development Cooperation Agency GIZ</t>
+          <t>University of Buenos Aires (UBA)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Agencia de Cooperación Alemana para el Desarrollo GIZ</t>
+          <t>Universidad de Buenos Aires (UBA)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>GIZ</t>
+          <t>UBA</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Academic</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6117,32 +6082,37 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ORG153</t>
+          <t>ORG242</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Agricultural Cooperative Development International / Volunteers in Overseas Cooperative Assistance</t>
+          <t>UN Resident Coordinator's Office</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Desarrollo Cooperativo Agrícola Internacional / Voluntarios en Asistencia Cooperativa en el Extranjero</t>
+          <t>Oficina de la Coordinadora Residente UN</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>ACDI/VOCA</t>
+          <t>OCR</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I159">
@@ -6152,32 +6122,37 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ORG154</t>
+          <t>ORG241</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Hogar de Cristo</t>
+          <t>UN Office for the Coordination of Humanitarian Affairs</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Hogar de Cristo</t>
+          <t>Oficina de Naciones Unidas para la Coordinación de Asuntos Humanitarios</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Hogar de Cristo</t>
+          <t>OCHA</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I160">
@@ -6187,22 +6162,22 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ORG155</t>
+          <t>ORG191</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Hogar de Nazareth</t>
+          <t>Peace for develpment</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Hogar de Nazareth</t>
+          <t>Peace for Development</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Hogar de Nazareth</t>
+          <t>Peace4Development</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6222,32 +6197,37 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ORG157</t>
+          <t>ORG120</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Pastoral Social Cáritas</t>
+          <t>United Nations Office of the High Commissioner for Human Rights (OHCHR)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Pastoral Social Cáritas</t>
+          <t>Oficina del Alto Comisionado de las Naciones Unidas para los Derechos Humanos (ACNUDH)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Pastoral Social Cáritas</t>
+          <t>OHCHR</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I162">
@@ -6257,22 +6237,22 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ORG158</t>
+          <t>ORG059</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Hermanos Salesianas</t>
+          <t>Inmigrante Feliz Association</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Hermanos Salesianas</t>
+          <t>Asociación Inmigrante Feliz</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Hermanos Salesianas</t>
+          <t>Inmigrante Feliz Association</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6292,32 +6272,37 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ORG159</t>
+          <t>ORG251</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Plan de vida Foundation</t>
+          <t>Capellanía de migrantes venezolanos de la diócesis de Lurín</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Fundación Pan de Vida</t>
+          <t>Capellanía de migrantes venezolanos de la diócesis de Lurín</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Fundación Pan de Vida</t>
+          <t>Diócesis de Lurín</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I164">
@@ -6327,27 +6312,27 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ORG160</t>
+          <t>ORG099</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Fundación Casa de Refugio Matilde</t>
+          <t>Salú pa Tur Foundation</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Fundación Casa de Refugio Matilde</t>
+          <t>Fundación Salú pa Tur</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Fundación Casa de Refugio Matilde</t>
+          <t>Salú pa Tur</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -6362,27 +6347,27 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ORG161</t>
+          <t>ORG025</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Sucumbíos Women's Federation</t>
+          <t>Caritas Switzerland</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Federación de Mujeres de Sucumbíos</t>
+          <t>Cáritas Suiza</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Federación de Mujeres de Sucumbíos</t>
+          <t>Caritas Switzerland</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -6397,22 +6382,22 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ORG162</t>
+          <t>ORG194</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Purik Huasi</t>
+          <t>Fondo Ecuatoriano Populorum Progressio</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Purik Huasi</t>
+          <t>Fondo Ecuatoriano Populorum Progressio</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Purik Huasi</t>
+          <t>FEPP</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6432,27 +6417,27 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ORG163</t>
+          <t>ORG030</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Tarabita Foundation</t>
+          <t>Center for Migration and Human Rights of the Diocese of Roraima (CMDH)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Fundación Tarabita</t>
+          <t>Centro de Migración y Derechos Humanos de la Diócesis de Roraima</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Fundación Tarabita</t>
+          <t>CMDH</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6467,27 +6452,27 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ORG164</t>
+          <t>ORG190</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Asociación Civil de Chamos Venezolanos</t>
+          <t>Caritas Ecuador</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Asociación Civil de Chamos Venezolanos</t>
+          <t>Caritas Ecuador</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Asociación Civil de Chamos Venezolanos</t>
+          <t>Caritas Ecuador</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -6502,32 +6487,37 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ORG165</t>
+          <t>ORG240</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Equidad Fundation</t>
+          <t>UN Volunteers</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Fundación Equidad</t>
+          <t>ONU voluntarios</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Fundación Equidad</t>
+          <t>UNV</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I170">
@@ -6537,22 +6527,22 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ORG166</t>
+          <t>ORG047</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Casa Cemisol</t>
+          <t>Fundación Huésped</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Casa Cemisol</t>
+          <t>Fundación Huésped</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Casa Cemisol</t>
+          <t>Fundación Huésped</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6572,32 +6562,37 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ORG167</t>
+          <t>ORG089</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Casa Violeta</t>
+          <t>Plan International</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Casa Violeta</t>
+          <t>Plan Internacional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Casa Violeta</t>
+          <t>Plan International</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I172">
@@ -6607,22 +6602,22 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ORG168</t>
+          <t>ORG250</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Nuestros Jóvenes Fundation</t>
+          <t>CHS Alternativo</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Fundación Nuestros Jóvenes</t>
+          <t>CHS Alternativo</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Fundación Nuestros Jóvenes</t>
+          <t>CHS Alternativo</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -6633,6 +6628,11 @@
       <c r="G173" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I173">
@@ -6642,27 +6642,27 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ORG169</t>
+          <t>ORG080</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Ecclesiastical Parish San Francisco</t>
+          <t>Missão Paz</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Parroquia Eclesiástica San Francisco</t>
+          <t>Missão Paz</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Parroquia Eclesiástica San Francisco</t>
+          <t>Missão Paz</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -6677,22 +6677,22 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ORG170</t>
+          <t>ORG216</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Casa Hogar San José</t>
+          <t>Foro Salud Callao</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Casa Hogar San José</t>
+          <t>Foro Salud Callao</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Casa Hogar San José</t>
+          <t>Foro Salud Callao</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6712,22 +6712,22 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ORG172</t>
+          <t>ORG161</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Permanent Human Rights defense Committee (CDH)</t>
+          <t>Sucumbíos Women's Federation</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Comite permanente por la defensa de los derechos humanos (CDH)</t>
+          <t>Federación de Mujeres de Sucumbíos</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CDH</t>
+          <t>Federación de Mujeres de Sucumbíos</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6747,27 +6747,27 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ORG174</t>
+          <t>ORG029</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>CESVI-Cooperazione e Sviluppo</t>
+          <t>Center for Integrated Studies and Programs for Sustainable Development (CIEDS)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>CESVI-Cooperazione e Sviluppo</t>
+          <t>Centro de Estudios y Programas Integrados para el Desarrollo Sostenible (CIEDS)</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>CESVI-Cooperazione e Sviluppo</t>
+          <t>CIEDS</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -6782,22 +6782,22 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ORG175</t>
+          <t>ORG221</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MedGlobal</t>
+          <t>IPANC</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>MedGlobal</t>
+          <t>IPANC</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>MedGlobal</t>
+          <t>IPANC</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6817,32 +6817,37 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ORG176</t>
+          <t>ORG248</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Fundación Mi Sangre</t>
+          <t>Consorcio de Org. Privadas de promoción al desarrollo de la micro y pequeña empresa</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Fundación Mi Sangre</t>
+          <t>Consorcio de Org. Privadas de promoción al desarrollo de la micro y pequeña empresa</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Fundación Mi Sangre</t>
+          <t>COPEME</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Civil Society</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I179">
@@ -6852,27 +6857,27 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ORG177</t>
+          <t>ORG073</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Corporación Opción Legal</t>
+          <t>Lutheran World Federation</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Corporación Opción Legal</t>
+          <t>Federación Luterana Mundial</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Corporación Opción Legal</t>
+          <t>Lutheran World Federation</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -6887,27 +6892,27 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ORG178</t>
+          <t>ORG109</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Vicariato apostólico de Esmeraldas – Nación de Paz (VAE)</t>
+          <t>TECHO</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Vicariato apostólico de Esmeraldas – Nación de Paz (VAE)</t>
+          <t>TECHO</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>VAE</t>
+          <t>TECHO</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -6922,37 +6927,32 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ORG179</t>
+          <t>ORG078</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Danielle’s Children Fund (DCF)</t>
+          <t>Migrant Service Center (CAM)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>DCF (Danielle’s Children Fund)</t>
+          <t>Centro de Atencion alMigrante (CAM)</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>DCF</t>
+          <t>CAM</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I182">
@@ -6962,22 +6962,22 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ORG180</t>
+          <t>ORG124</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Movimiento de Mujeres de El Oro</t>
+          <t>UruVene</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Movimiento de Mujeres de El Oro</t>
+          <t>UruVene</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>MMO</t>
+          <t>UruVene</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6997,22 +6997,22 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ORG181</t>
+          <t>ORG213</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Más Igualdad Perú</t>
+          <t>Centro de Atencion Psicosocial (CAPS)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Más Igualdad Perú</t>
+          <t>Centro de Atencion Psicosocial (CAPS)</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Más Igualdad Perú</t>
+          <t>CAPS</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -7032,27 +7032,27 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ORG182</t>
+          <t>ORG028</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>HELVETAS Swiss Intercooperation</t>
+          <t>CCEFIRO Association</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>HELVETAS Swiss Intercooperation</t>
+          <t>Asociación Construyendo Caminos de Esperanza Frente a la Injusticia, el Rechazo y el Olvido (CCEFIRO)</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>HELVETAS</t>
+          <t>CCEFIRO</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -7067,27 +7067,27 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ORG183</t>
+          <t>ORG130</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Lutheran World Relief</t>
+          <t>Victim Support Foundation</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Lutheran World Relief</t>
+          <t>Fundación para Asistencia a las Víctimas</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>LWR</t>
+          <t>Victim Support Foundation</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -7102,27 +7102,27 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ORG184</t>
+          <t>ORG163</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Consejo Interreligioso del Perú - Religiones por la Paz</t>
+          <t>Tarabita Foundation</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Consejo Interreligioso del Perú - Religiones por la Paz</t>
+          <t>Fundación Tarabita</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>CIREMI</t>
+          <t>Fundación Tarabita</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -7137,32 +7137,37 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ORG185</t>
+          <t>ORG053</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Renacer</t>
+          <t>Hebrew Immigrant Aid Society (HIAS)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Renacer</t>
+          <t>HIAS</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Renacer</t>
+          <t>HIAS</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I188">
@@ -7172,22 +7177,22 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ORG186</t>
+          <t>ORG017</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Alianza por la Solidaridad</t>
+          <t>CARE</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Alianza por la Solidaridad</t>
+          <t>CARE</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Alianza por la Solidaridad</t>
+          <t>CARE</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -7197,7 +7202,12 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I189">
@@ -7207,27 +7217,32 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ORG187</t>
+          <t>ORG139</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>World Council of Credit Unions</t>
+          <t>Caritas Parana</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>World Council of Credit Unions</t>
+          <t>Caritas Parana</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Cáritas Paraná</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>WOCCU</t>
+          <t>Cáritas Paraná</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -7242,67 +7257,67 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ORG188</t>
+          <t>ORG002</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Foundation for the Integration and Development of Latin America (FIDAL)</t>
+          <t>ACAPS</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Fundación para la Integración y el Desarrollo de América Latina (FIDAL)</t>
+          <t>ACAPS</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>FIDAL</t>
+          <t>ACAPS</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ORG189</t>
+          <t>ORG010</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Mision Scalabriniana - Ecuador</t>
+          <t>Americares Foundation</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Mision Scalabriniana - Ecuador</t>
+          <t>Fundación Americares</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Mision Scalabriniana - Ecuador</t>
+          <t>Americares Foundation</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -7317,27 +7332,27 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ORG190</t>
+          <t>ORG209</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Caritas Ecuador</t>
+          <t>Asociación ILLARI-AMANECER</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Caritas Ecuador</t>
+          <t>Asociación ILLARI-AMANECER</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Caritas Ecuador</t>
+          <t>ILLARI-AMANECER</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -7352,27 +7367,32 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ORG191</t>
+          <t>ORG141</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Peace for develpment</t>
+          <t>Compassiva</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Peace for Development</t>
+          <t>Compassiva</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Compassiva</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Peace4Development</t>
+          <t>Compassiva</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Civil Society</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -7387,27 +7407,27 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ORG192</t>
+          <t>ORG093</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centro Familiar Familias Sin Fronteras – Fundación Familia Sin Fronteras</t>
+          <t>Red Cross Argentina</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Centro Familiar Familias Sin Fronteras – Fundación Familia Sin Fronteras</t>
+          <t>Cruz Roja Argentina</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>CEFAMM</t>
+          <t>Cruz Roja Argentina</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Red Cross</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -7422,27 +7442,27 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ORG193</t>
+          <t>ORG162</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Ending Violence Against Migrants</t>
+          <t>Purik Huasi</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Ending Violence Against Migrants</t>
+          <t>Purik Huasi</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>EVAM</t>
+          <t>Purik Huasi</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7457,27 +7477,27 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ORG194</t>
+          <t>ORG015</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Fondo Ecuatoriano Populorum Progressio</t>
+          <t>Blumont</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Fondo Ecuatoriano Populorum Progressio</t>
+          <t>Blumont</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>FEPP</t>
+          <t>Blumont</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -7492,22 +7512,22 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ORG195</t>
+          <t>ORG069</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Caritas Aruba</t>
+          <t>Jesuit Service for Migrants and Refugees (JSMR)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Cáritas Aruba</t>
+          <t>Servicio Jesuita a Migrantes y Refugiados (SJMR)</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Caritas Aruba</t>
+          <t>JSMR</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -7527,27 +7547,27 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ORG196</t>
+          <t>ORG023</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Duendes y Ángeles Vinotinto República Dominicana</t>
+          <t>Caritas Rio de Janeiro</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Duendes y Ángeles Vinotinto República Dominicana</t>
+          <t>Cáritas Rio de Janeiro</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Duendes Vinotinto</t>
+          <t>Caritas Rio de Janeiro</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -7562,27 +7582,27 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ORG197</t>
+          <t>ORG054</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Venezuelan Emigrant Foundation (FEV)</t>
+          <t>Human Rights Caribbean Foundation (HRC)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Fundación de Emigrantes Venezolanos (FEV)</t>
+          <t>Fundación Human Rights Caribbean (HRC)</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>FEV</t>
+          <t>HRC</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -7597,32 +7617,37 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ORG198</t>
+          <t>ORG098</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Asociación Aves</t>
+          <t>RET International</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Asociación Aves</t>
+          <t>RET Internacional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Aves</t>
+          <t>RET International</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Civil Society</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I201">
@@ -7632,27 +7657,32 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ORG199</t>
+          <t>ORG142</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Venezuelan Diaspora in the Dominican Depublic</t>
+          <t>International Humanitarian Federation</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Diáspora Venezolana en República Dominicana</t>
+          <t>Federación internacional humanitaria</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>FFHI - Fraternidade - Federação Humanitária Internacional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Diáspora Venezolana en República Dominicana</t>
+          <t>FFHI</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Civil Society</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -7667,27 +7697,27 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ORG200</t>
+          <t>ORG211</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Venezolanos en San Cristóbal</t>
+          <t>Asociación Mutual Israelita Argentina</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Venezolanos en San Cristóbal</t>
+          <t>Asociación Mutual Israelita Argentina</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Venezolanos en San Cristóbal</t>
+          <t>AMIA</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Civil Society</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -7702,27 +7732,27 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ORG201</t>
+          <t>ORG157</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Churún Merú Association</t>
+          <t>Pastoral Social Cáritas</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Asociación Churún Merú</t>
+          <t>Pastoral Social Cáritas</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Churún Merú</t>
+          <t>Pastoral Social Cáritas</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Civil Society</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -7737,27 +7767,27 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ORG202</t>
+          <t>ORG193</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Fundación CRISFE</t>
+          <t>Ending Violence Against Migrants</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Fundación CRISFE</t>
+          <t>Ending Violence Against Migrants</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>CRISFE</t>
+          <t>EVAM</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -7772,27 +7802,27 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ORG203</t>
+          <t>ORG090</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Terre des Hommes Lausanne</t>
+          <t>Profamilia Association</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Terre des Hommes Lausanne</t>
+          <t>Asociación Profamilia</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>TDH Lausanne</t>
+          <t>Profamilia Association</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -7807,32 +7837,27 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ORG204</t>
+          <t>ORG009</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Serviço Pastoral dos Migrantes do Nordeste</t>
+          <t>Alas de Colibrí Foundation</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Serviço Pastoral dos Migrantes do Nordeste</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>Serviço Pastoral dos Migrantes do Nordeste</t>
+          <t>Fundación Alas de Colibrí</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SPM-NE</t>
+          <t>Alas de Colibrí Foundation</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -7847,32 +7872,37 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ORG205</t>
+          <t>ORG064</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Dominican Institute for Integrated Development</t>
+          <t>International Organization for Migration (IOM)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Instituto Dominicano de Desarrollo Integral</t>
+          <t>Organización Internacional para las Migraciones (OIM)</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Instituto Dominicano de Desarrollo Integral</t>
+          <t>IOM</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I208">
@@ -7882,27 +7912,32 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ORG206</t>
+          <t>ORG144</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Humans Analytic</t>
+          <t>Mana Institute</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Humans Analytic</t>
+          <t>Instituto de maná</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Instituto Mana</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Humans Analytic</t>
+          <t>Instituto Mana</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -7917,32 +7952,37 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ORG207</t>
+          <t>ORG084</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Asociacion de Jubilados y Pensionados Venezolanos en Argentina</t>
+          <t>Organization of Ibero-American States for Education, Science and Culture (OEI)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Asociacion de Jubilados y Pensionados Venezolanos en Argentina</t>
+          <t>Organización de Estados Iberoamericanos para la Educación, la Ciencia y la Cultura (OEI)</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Asociacion de Jubilados y Pensionados Venezolanos en Argentina</t>
+          <t>OEI</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Civil Society</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I210">
@@ -7952,27 +7992,27 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ORG208</t>
+          <t>ORG119</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Asociación de venezolanos en la República argentina (ASOVEN)</t>
+          <t>United Nations Office for Project Services (UNOPS)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Asociación de venezolanos en la República argentina (ASOVEN)</t>
+          <t>Oficina de las Naciones Unidas de Servicios para Proyectos (UNOPS)</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ASOVEN</t>
+          <t>UNOPS</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -7987,27 +8027,27 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ORG209</t>
+          <t>ORG117</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Asociación ILLARI-AMANECER</t>
+          <t>United Nations Food and Agricultural Organization (FAO)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Asociación ILLARI-AMANECER</t>
+          <t>Organización de las Naciones Unidas para la Alimentación y la Agricultura (FAO)</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ILLARI-AMANECER</t>
+          <t>FAO</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -8022,27 +8062,27 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ORG210</t>
+          <t>ORG199</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>AsociacIón Misioneros de San Carlos Scalabrinianos</t>
+          <t>Venezuelan Diaspora in the Dominican Depublic</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>AsociacIón Misioneros de San Carlos Scalabrinianos</t>
+          <t>Diáspora Venezolana en República Dominicana</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>AsociacIón Scalabrinianos</t>
+          <t>Diáspora Venezolana en República Dominicana</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>Civil Society</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -8057,22 +8097,22 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ORG211</t>
+          <t>ORG056</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Asociación Mutual Israelita Argentina</t>
+          <t>Idas y Vueltas Association</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Asociación Mutual Israelita Argentina</t>
+          <t>Asociación Idas y Vueltas</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Asociación Mutual Israelita Argentina</t>
+          <t>Idas y Vueltas Association</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -8092,32 +8132,37 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ORG212</t>
+          <t>ORG005</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Asociación Venezolana en Chile</t>
+          <t>ActionAid</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Asociación Venezolana en Chile</t>
+          <t>Ayuda en Acción</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Asociación Venezolana en Chile</t>
+          <t>ActionAid</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I215">
@@ -8127,27 +8172,27 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ORG213</t>
+          <t>ORG227</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Centro de Atencion Psicosocial (CAPS)</t>
+          <t>Servicio Ecuménico para la Dignidad Humana</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Centro de Atencion Psicosocial (CAPS)</t>
+          <t>Servicio Ecuménico para la Dignidad Humana</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>CAPS</t>
+          <t>SEDHU</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -8162,32 +8207,37 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ORG214</t>
+          <t>ORG257</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Red Cross Peru</t>
+          <t>Fundación Las Golondrinas</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Cruz Roja Perú</t>
+          <t>Fundación Las Golondrinas</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Cruz Roja Perú</t>
+          <t>Fundación Las Golondrinas</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Red Cross</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="I217">
@@ -8197,27 +8247,27 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ORG215</t>
+          <t>ORG225</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Red Cross Uruguay</t>
+          <t>Red regioanal LGTBI+</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Cruz Roja Uruguay</t>
+          <t>Red regioanal LGTBI+</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Cruz Roja Uruguay</t>
+          <t>Red regioanal LGTBI+</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Red Cross</t>
+          <t>Civil Society</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -8232,27 +8282,32 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ORG216</t>
+          <t>ORG138</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Foro Salud Callao</t>
+          <t>Caritas Manaus</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Foro Salud Callao</t>
+          <t>Caritas Manaus</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Cáritas Manaus</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Foro Salud Callao</t>
+          <t>Cáritas Manaus</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -8267,27 +8322,27 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ORG217</t>
+          <t>ORG152</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Fundación de Ayuda Social de Las Iglesias Cristianas</t>
+          <t>German Development Cooperation Agency GIZ</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Fundación de Ayuda Social de Las Iglesias Cristianas</t>
+          <t>Agencia de Cooperación Alemana para el Desarrollo GIZ</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Fundación de Ayuda Social de Las Iglesias Cristianas</t>
+          <t>GIZ</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -8302,32 +8357,37 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ORG218</t>
+          <t>ORG238</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Fundación Scalabrini Bolivia</t>
+          <t>Programa de Soporte a la autoayuda de personas seropositivas</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Fundación Scalabrini Bolivia</t>
+          <t>Programa de Soporte a la autoayuda de personas seropositivas</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Fundación Scalabrini Bolivia</t>
+          <t>PROSA</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>Civil Society</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I221">
@@ -8337,27 +8397,27 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ORG219</t>
+          <t>ORG006</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Human Rights Defence Curaçao</t>
+          <t>Adventist Development and Relief Agency (ADRA)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Human Rights Defence Curaçao</t>
+          <t>Agencia Adventista de Desarollo y Recursos Asistenciales (ADRA)</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Human Rights Defence Curaçao</t>
+          <t>ADRA</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -8372,27 +8432,27 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ORG220</t>
+          <t>ORG264</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Instituto Félix Guattari</t>
+          <t>Pan American Development Foundation</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Instituto Félix Guattari</t>
+          <t>Fundación Panamericana de Desarrollo</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Instituto Félix Guattari</t>
+          <t>PADF</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Civil Society</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -8407,27 +8467,27 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ORG221</t>
+          <t>ORG176</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>IPANC</t>
+          <t>Fundación Mi Sangre</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>IPANC</t>
+          <t>Fundación Mi Sangre</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>IPANC</t>
+          <t>Fundación Mi Sangre</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -8442,27 +8502,27 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ORG222</t>
+          <t>ORG092</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Medical Teams International</t>
+          <t>Red con Migrantes y Refugiados</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Medical Teams International</t>
+          <t>Red con Migrantes y Refugiados</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Medical Teams International</t>
+          <t>Red con Migrantes y Refugiados</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -8477,27 +8537,27 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ORG223</t>
+          <t>ORG061</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Parroquia Ntra Sra Asunción y Madre de los Migrantes</t>
+          <t>International Committee for the Development of People (CISP)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Parroquia Ntra Sra Asunción y Madre de los Migrantes</t>
+          <t>Comité Internacional para el Desarrollo de los Pueblos (CISP)</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Parroquia Ntra Sra Asunción y Madre de los Migrantes</t>
+          <t>CISP</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -8512,22 +8572,22 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ORG224</t>
+          <t>ORG170</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Red de Investigaciones Orientadas a la Solución de Problemas en Derechos Humanos</t>
+          <t>Casa Hogar San José</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Red de Investigaciones Orientadas a la Solución de Problemas en Derechos Humanos</t>
+          <t>Casa Hogar San José</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>RIOSP DDHH</t>
+          <t>Casa Hogar San José</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -8547,32 +8607,42 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ORG225</t>
+          <t>ORG254</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Red regioanal LGTBI+</t>
+          <t>Associação Hermanitos</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Red regioanal LGTBI+</t>
+          <t>Associação Hermanitos</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Associação Hermanitos</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Red regioanal LGTBI+</t>
+          <t>Associação Hermanitos</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Civil Society</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I228">
@@ -8582,22 +8652,22 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ORG226</t>
+          <t>ORG262</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Sección Peruana de Amnistía Internacional</t>
+          <t>Takuna Foundation</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Sección Peruana de Amnistía Internacional</t>
+          <t>Fundación Takuna</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Amnistía Internacional Perú</t>
+          <t>Takuna</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -8617,27 +8687,32 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ORG227</t>
+          <t>ORG140</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Servicio Ecuménico para la Dignidad Humana</t>
+          <t>Coletivo MOSAICO - Social, Environmental, Interactive, Cultural and Organizational Movement Association</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Servicio Ecuménico para la Dignidad Humana</t>
+          <t>Coletivo MOSAICO - Asociación del Movimiento Social, Ambiental, Interactivo, Cultural y Organizacional</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Coletivo MOSAICO - Associação Movimento Socioambiental, Interativo, Cultural e Organizacional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>SEDHU</t>
+          <t>Coletivo MOSAICO</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -8652,27 +8727,27 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ORG228</t>
+          <t>ORG031</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Sesame Workshop</t>
+          <t>Center for Studies and Solidarity with Latin America (CESAL)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Sesame Workshop</t>
+          <t>Centro de Estudios y Solidaridad con América Latina (CESAL)</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Sesame</t>
+          <t>CESAL</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -8687,27 +8762,27 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ORG229</t>
+          <t>ORG085</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Solidarites International/Premiere Urgence Internationale (Consorcio de SI y PUI)</t>
+          <t>OXFAM</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Solidarites International/Premiere Urgence Internationale (Consorcio de SI y PUI)</t>
+          <t>OXFAM</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Consorcio de SI y PUI</t>
+          <t>OXFAM</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8722,32 +8797,37 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ORG230</t>
+          <t>ORG247</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Swisscontact</t>
+          <t>Red Cross Spain</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Swisscontact</t>
+          <t>Cruz Roja Española</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Swisscontact</t>
+          <t>Cruz Roja Española</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Red Cross</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I233">
@@ -8757,27 +8837,27 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ORG231</t>
+          <t>ORG094</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>We World GVC</t>
+          <t>Red Cross Colombia</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>We World GVC</t>
+          <t>Cruz Roja Colombia</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>WWGVC</t>
+          <t>Cruz Roja Colombia</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Red Cross</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -8792,22 +8872,22 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ORG232</t>
+          <t>ORG008</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Baylor’s college of medicine children foundation</t>
+          <t>AIDS Healthcare Foundation (AHF)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Fundación Baylor Colombia</t>
+          <t>AIDS Healthcare Foundation</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Fundación Baylor Colombia</t>
+          <t>AHF</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -8827,27 +8907,27 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ORG233</t>
+          <t>ORG172</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>PROBONO Colombia</t>
+          <t>Permanent Human Rights defense Committee (CDH)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>PROBONO Colombia</t>
+          <t>Comite permanente por la defensa de los derechos humanos (CDH)</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>PROBONO Colombia</t>
+          <t>CDH</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -8862,27 +8942,27 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ORG234</t>
+          <t>ORG215</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ACT Alliance</t>
+          <t>Red Cross Uruguay</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>ACT Alianza</t>
+          <t>Cruz Roja Uruguay</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>ACT Alianza</t>
+          <t>Cruz Roja Uruguay</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Red Cross</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -8897,32 +8977,37 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ORG235</t>
+          <t>ORG236</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>COLVENZ</t>
+          <t>Terre des Hommes Suisse</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>COLVENZ</t>
+          <t>Terre des Hommes Suisse</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>COLVENZ</t>
+          <t>TDH Suisse</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I238">
@@ -8932,27 +9017,27 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ORG236</t>
+          <t>ORG171</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Terre des Hommes Suisse</t>
+          <t>Solidarity and Action Asociation</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Terre des Hommes Suisse</t>
+          <t>Asociación Solidaridad y Acción</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>TDH Suisse</t>
+          <t>ASA</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -8962,37 +9047,37 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ORG237</t>
+          <t>ORG258</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Sparkassenstiftung für internationale Kooperation</t>
+          <t>Opportunity International/AGAPE</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Sparkassenstiftung für internationale Kooperation</t>
+          <t>Opportunity International/AGAPE</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Sparkassenstiftung</t>
+          <t>AGAPE</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Civil Society</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -9002,7 +9087,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="I240">
@@ -9012,37 +9097,32 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ORG238</t>
+          <t>ORG210</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Programa de Soporte a la autoayuda de personas seropositivas</t>
+          <t>AsociacIón Misioneros de San Carlos Scalabrinianos</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Programa de Soporte a la autoayuda de personas seropositivas</t>
+          <t>AsociacIón Misioneros de San Carlos Scalabrinianos</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>PROSA</t>
+          <t>AsociacIón Scalabrinianos</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Civil Society</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
       <c r="I241">
@@ -9052,37 +9132,32 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ORG239</t>
+          <t>ORG198</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Progetto mondo mlal</t>
+          <t>Asociación Aves</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Progetto mondo mlal</t>
+          <t>Asociación Aves</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Progetto mondo mlal</t>
+          <t>Aves</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Civil Society</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
       <c r="I242">
@@ -9092,37 +9167,32 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ORG240</t>
+          <t>ORG040</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>UN Volunteers</t>
+          <t>Development Support Association - APOYAR</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>ONU voluntarios</t>
+          <t>Asociación de Apoyo al Desarrollo - APOYAR</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>UNV</t>
+          <t>APOYAR</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
       <c r="I243">
@@ -9132,37 +9202,37 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ORG241</t>
+          <t>ORG071</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>UN Office for the Coordination of Humanitarian Affairs</t>
+          <t>Latin American Network of Non-Governmental Organizations of Persons with Disabilities and their Families (RIADIS)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Oficina de Naciones Unidas para la Coordinación de Asuntos Humanitarios</t>
+          <t>Red Latinoamericana de Organizaciones no Gubernamentales de Personas con Discapacidad y sus Familias (RIADIS)</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>OCHA</t>
+          <t>RIADIS</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I244">
@@ -9172,27 +9242,32 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ORG242</t>
+          <t>ORG255</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>UN Resident Coordinator's Office</t>
+          <t>CIR - Roraima Indigenous Council</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Oficina de la Coordinadora Residente UN</t>
+          <t>CIR - Conselho Indígena de Roraima</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>CIR - Conselho Indígena de Roraima</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>OCR</t>
+          <t>CIR</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -9202,7 +9277,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I245">
@@ -9212,37 +9287,32 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ORG243</t>
+          <t>ORG060</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Instituto de Promoción del Desarrollo Solidario</t>
+          <t>Institute for Migration and Human Rights (IMDH)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Instituto de Promoción del Desarrollo Solidario</t>
+          <t>Instituto para las Migraciones y Derechos Humanos (IMDH)</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>INPET</t>
+          <t>IMDH</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Civil Society</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
       <c r="I246">
@@ -9252,37 +9322,37 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ORG244</t>
+          <t>ORG115</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Instituto de Democracia y Derechos Humanos</t>
+          <t>United Nations Educational, Scientific and Cultural Organization (UNESCO)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Instituto de Democracia y Derechos Humanos</t>
+          <t>Organización de las Naciones Unidas para la Educación, la Ciencia y la Cultura (UNESCO)</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>IDEHPUCP</t>
+          <t>UNESCO</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Academic</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I247">
@@ -9292,22 +9362,22 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ORG245</t>
+          <t>ORG014</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>GOAL</t>
+          <t>Bethany Christian Services</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>GOAL</t>
+          <t>Bethany Christian Services</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>GOAL</t>
+          <t>Bethany Christian Services</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -9318,11 +9388,6 @@
       <c r="G248" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
       <c r="I248">
@@ -9332,37 +9397,32 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ORG246</t>
+          <t>ORG129</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Encuentros SJS (Servicio Jesuita de la Solidaridad)</t>
+          <t>Venezuelan Civil Association in Paraguay</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Encuentros SJS (Servicio Jesuita de la Solidaridad)</t>
+          <t>Asociación Civil Venezolana en Paraguay</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Encuentros SJS</t>
+          <t>Venezuelan Civil Association in Paraguay</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
       <c r="I249">
@@ -9372,37 +9432,32 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ORG247</t>
+          <t>ORG206</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Red Cross Spain</t>
+          <t>Humans Analytic</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Cruz Roja Española</t>
+          <t>Humans Analytic</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Cruz Roja Española</t>
+          <t>Humans Analytic</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Red Cross</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
       <c r="I250">
@@ -9412,37 +9467,32 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ORG248</t>
+          <t>ORG083</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Consorcio de Org. Privadas de promoción al desarrollo de la micro y pequeña empresa</t>
+          <t>Organización Fuerza Internacional de Capellanía DDHH y DIH OFICA ICC</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Consorcio de Org. Privadas de promoción al desarrollo de la micro y pequeña empresa</t>
+          <t>Organización Fuerza Internacional de Capellanía DDHH y DIH OFICA ICC</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>COPEME</t>
+          <t>Organización Fuerza Internacional de Capellanía DDHH y DIH OFICA ICC</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Civil Society</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
       <c r="I251">
@@ -9452,37 +9502,32 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ORG249</t>
+          <t>ORG197</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>International Committee of the Red Cross</t>
+          <t>Venezuelan Emigrant Foundation (FEV)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Comité Internacional de la Cruz Roja</t>
+          <t>Fundación de Emigrantes Venezolanos (FEV)</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>CICR</t>
+          <t>FEV</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Red Cross</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
       <c r="I252">
@@ -9492,27 +9537,27 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ORG250</t>
+          <t>ORG245</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>CHS Alternativo</t>
+          <t>GOAL</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>CHS Alternativo</t>
+          <t>GOAL</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>CHS Alternativo</t>
+          <t>GOAL</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -9532,37 +9577,32 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ORG251</t>
+          <t>ORG220</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Capellanía de migrantes venezolanos de la diócesis de Lurín</t>
+          <t>Instituto Félix Guattari</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Capellanía de migrantes venezolanos de la diócesis de Lurín</t>
+          <t>Instituto Félix Guattari</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Diócesis de Lurín</t>
+          <t>Instituto Félix Guattari</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>Civil Society</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
       <c r="I254">
@@ -9572,32 +9612,27 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ORG254</t>
+          <t>ORG105</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Associação Hermanitos</t>
+          <t>Social Assistance Foundation of the Christian Churches (FASIC)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Associação Hermanitos</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>Associação Hermanitos</t>
+          <t>Fundación de Ayuda Social de las Iglesias Cristianas (FASIC)</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Associação Hermanitos</t>
+          <t>FASIC</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -9607,7 +9642,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="I255">
@@ -9617,42 +9652,32 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ORG255</t>
+          <t>ORG062</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>CIR - Roraima Indigenous Council</t>
+          <t>International Federation of the Red Cross (IFRC)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>CIR - Conselho Indígena de Roraima</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>CIR - Conselho Indígena de Roraima</t>
+          <t>Federación Internacional de la Cruz Roja (FIRC)</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>CIR</t>
+          <t>FIRC</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Red Cross</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>Brazil</t>
         </is>
       </c>
       <c r="I256">
@@ -9662,42 +9687,32 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ORG256</t>
+          <t>ORG136</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Fraternity Without Borders</t>
+          <t>Family Planning Association of Trinidad and Tobago</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Fraternidade Sem Fronteiras</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>Fraternidade Sem Fronteiras</t>
+          <t>Family Planning Association of Trinidad and Tobago</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>FWB</t>
+          <t>FPATT</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>Brazil</t>
         </is>
       </c>
       <c r="I257">
@@ -9707,22 +9722,27 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ORG257</t>
+          <t>ORG137</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Fundación Las Golondrinas</t>
+          <t>ABV - Association of Good with Life</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Fundación Las Golondrinas</t>
+          <t>ABV - Asociación del Bien con la Vida</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>ABV - Associação de Bem com a Vida</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Fundación Las Golondrinas</t>
+          <t>ABV</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -9733,11 +9753,6 @@
       <c r="G258" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>Colombia</t>
         </is>
       </c>
       <c r="I258">
@@ -9747,40 +9762,325 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ORG258</t>
+          <t>ORG147</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Opportunity International/AGAPE</t>
+          <t>Pastoral Service for Migrants National</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Opportunity International/AGAPE</t>
+          <t>Servicio Pastoral de Migrantes Nacional</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Serviço Pastoral dos Migrantes Nacional</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>AGAPE</t>
+          <t>SPM</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
+          <t>Faith Based Organizations</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>ORG126</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>VenAruba Solidaria</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>VenAruba Solidaria</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>VenAruba Solidaria</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
           <t>NNGO</t>
         </is>
       </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="I259">
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>ORG070</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Joint United Nations Programme on HIV/AIDS (UNAIDS)</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Programa Conjunto de las Naciones Unidas sobre el VIH/SIDA (ONUSIDA)</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>UNAIDS</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Regional</t>
+        </is>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>ORG219</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Human Rights Defence Curaçao</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Human Rights Defence Curaçao</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Human Rights Defence Curaçao</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>NNGO</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>ORG169</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Ecclesiastical Parish San Francisco</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Parroquia Eclesiástica San Francisco</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Parroquia Eclesiástica San Francisco</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>NNGO</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>ORG033</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>ChildFund International</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>ChildFund Internacional</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>ChildFund International</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>INGO</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>ORG180</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Movimiento de Mujeres de El Oro</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Movimiento de Mujeres de El Oro</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>MMO</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>NNGO</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>ORG082</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Norwegian Refugee Council (NRC)</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Consejo Noruego para los Refugiados (NRC)</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>NRC</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>INGO</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>ORG127</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>VenEuropa</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>VenEuropa</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>VenEuropa</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>INGO</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I267">
         <v>0</v>
       </c>
     </row>

--- a/data-raw/RMRP_2021_AI_partners.xlsx
+++ b/data-raw/RMRP_2021_AI_partners.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I267"/>
+  <dimension ref="A1:I268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2030,6 +2030,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Southern cone</t>
+        </is>
+      </c>
       <c r="I46">
         <v>0</v>
       </c>
@@ -8207,22 +8212,27 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ORG257</t>
+          <t>ORG266</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Fundación Las Golondrinas</t>
+          <t>Museu A CASA</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Fundación Las Golondrinas</t>
+          <t>Museu A CASA</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Museu A CASA</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Fundación Las Golondrinas</t>
+          <t>Museu A CASA</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -8237,7 +8247,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I217">
@@ -8247,32 +8257,37 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ORG225</t>
+          <t>ORG257</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Red regioanal LGTBI+</t>
+          <t>Fundación Las Golondrinas</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Red regioanal LGTBI+</t>
+          <t>Fundación Las Golondrinas</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Red regioanal LGTBI+</t>
+          <t>Fundación Las Golondrinas</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Civil Society</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="I218">
@@ -8282,32 +8297,27 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ORG138</t>
+          <t>ORG225</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Caritas Manaus</t>
+          <t>Red regioanal LGTBI+</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Caritas Manaus</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>Cáritas Manaus</t>
+          <t>Red regioanal LGTBI+</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Cáritas Manaus</t>
+          <t>Red regioanal LGTBI+</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>Civil Society</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -8322,27 +8332,32 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ORG152</t>
+          <t>ORG138</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>German Development Cooperation Agency GIZ</t>
+          <t>Caritas Manaus</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Agencia de Cooperación Alemana para el Desarrollo GIZ</t>
+          <t>Caritas Manaus</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Cáritas Manaus</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>GIZ</t>
+          <t>Cáritas Manaus</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -8357,37 +8372,32 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ORG238</t>
+          <t>ORG152</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Programa de Soporte a la autoayuda de personas seropositivas</t>
+          <t>German Development Cooperation Agency GIZ</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Programa de Soporte a la autoayuda de personas seropositivas</t>
+          <t>Agencia de Cooperación Alemana para el Desarrollo GIZ</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>PROSA</t>
+          <t>GIZ</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Civil Society</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
       <c r="I221">
@@ -8397,32 +8407,37 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ORG006</t>
+          <t>ORG238</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Adventist Development and Relief Agency (ADRA)</t>
+          <t>Programa de Soporte a la autoayuda de personas seropositivas</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Agencia Adventista de Desarollo y Recursos Asistenciales (ADRA)</t>
+          <t>Programa de Soporte a la autoayuda de personas seropositivas</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>ADRA</t>
+          <t>PROSA</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Civil Society</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I222">
@@ -8432,22 +8447,22 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ORG264</t>
+          <t>ORG006</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Pan American Development Foundation</t>
+          <t>Adventist Development and Relief Agency (ADRA)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Fundación Panamericana de Desarrollo</t>
+          <t>Agencia Adventista de Desarollo y Recursos Asistenciales (ADRA)</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>PADF</t>
+          <t>ADRA</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -8467,27 +8482,27 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ORG176</t>
+          <t>ORG264</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Fundación Mi Sangre</t>
+          <t>Pan American Development Foundation</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Fundación Mi Sangre</t>
+          <t>Fundación Panamericana de Desarrollo</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Fundación Mi Sangre</t>
+          <t>PADF</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -8502,22 +8517,22 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ORG092</t>
+          <t>ORG176</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Red con Migrantes y Refugiados</t>
+          <t>Fundación Mi Sangre</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Red con Migrantes y Refugiados</t>
+          <t>Fundación Mi Sangre</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Red con Migrantes y Refugiados</t>
+          <t>Fundación Mi Sangre</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -8537,27 +8552,27 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ORG061</t>
+          <t>ORG092</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>International Committee for the Development of People (CISP)</t>
+          <t>Red con Migrantes y Refugiados</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Comité Internacional para el Desarrollo de los Pueblos (CISP)</t>
+          <t>Red con Migrantes y Refugiados</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>CISP</t>
+          <t>Red con Migrantes y Refugiados</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -8572,27 +8587,27 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ORG170</t>
+          <t>ORG061</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Casa Hogar San José</t>
+          <t>International Committee for the Development of People (CISP)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Casa Hogar San José</t>
+          <t>Comité Internacional para el Desarrollo de los Pueblos (CISP)</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Casa Hogar San José</t>
+          <t>CISP</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -8607,27 +8622,22 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ORG254</t>
+          <t>ORG170</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Associação Hermanitos</t>
+          <t>Casa Hogar San José</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Associação Hermanitos</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Associação Hermanitos</t>
+          <t>Casa Hogar San José</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Associação Hermanitos</t>
+          <t>Casa Hogar San José</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -8638,11 +8648,6 @@
       <c r="G228" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>Brazil</t>
         </is>
       </c>
       <c r="I228">
@@ -8652,22 +8657,27 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ORG262</t>
+          <t>ORG254</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Takuna Foundation</t>
+          <t>Associação Hermanitos</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Fundación Takuna</t>
+          <t>Associação Hermanitos</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Associação Hermanitos</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Takuna</t>
+          <t>Associação Hermanitos</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -8678,6 +8688,11 @@
       <c r="G229" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I229">
@@ -8687,27 +8702,22 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ORG140</t>
+          <t>ORG262</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Coletivo MOSAICO - Social, Environmental, Interactive, Cultural and Organizational Movement Association</t>
+          <t>Takuna Foundation</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Coletivo MOSAICO - Asociación del Movimiento Social, Ambiental, Interactivo, Cultural y Organizacional</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Coletivo MOSAICO - Associação Movimento Socioambiental, Interativo, Cultural e Organizacional</t>
+          <t>Fundación Takuna</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Coletivo MOSAICO</t>
+          <t>Takuna</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -8727,27 +8737,32 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ORG031</t>
+          <t>ORG140</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Center for Studies and Solidarity with Latin America (CESAL)</t>
+          <t>Coletivo MOSAICO - Social, Environmental, Interactive, Cultural and Organizational Movement Association</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Centro de Estudios y Solidaridad con América Latina (CESAL)</t>
+          <t>Coletivo MOSAICO - Asociación del Movimiento Social, Ambiental, Interactivo, Cultural y Organizacional</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Coletivo MOSAICO - Associação Movimento Socioambiental, Interativo, Cultural e Organizacional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>CESAL</t>
+          <t>Coletivo MOSAICO</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -8762,22 +8777,22 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ORG085</t>
+          <t>ORG031</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>OXFAM</t>
+          <t>Center for Studies and Solidarity with Latin America (CESAL)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>OXFAM</t>
+          <t>Centro de Estudios y Solidaridad con América Latina (CESAL)</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>OXFAM</t>
+          <t>CESAL</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -8797,37 +8812,32 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ORG247</t>
+          <t>ORG085</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Red Cross Spain</t>
+          <t>OXFAM</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Cruz Roja Española</t>
+          <t>OXFAM</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Cruz Roja Española</t>
+          <t>OXFAM</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Red Cross</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
       <c r="I233">
@@ -8837,22 +8847,22 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ORG094</t>
+          <t>ORG247</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Red Cross Colombia</t>
+          <t>Red Cross Spain</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Cruz Roja Colombia</t>
+          <t>Cruz Roja Española</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Cruz Roja Colombia</t>
+          <t>Cruz Roja Española</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -8863,6 +8873,11 @@
       <c r="G234" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I234">
@@ -8872,27 +8887,27 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ORG008</t>
+          <t>ORG094</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>AIDS Healthcare Foundation (AHF)</t>
+          <t>Red Cross Colombia</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>AIDS Healthcare Foundation</t>
+          <t>Cruz Roja Colombia</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>AHF</t>
+          <t>Cruz Roja Colombia</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Red Cross</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -8907,27 +8922,27 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ORG172</t>
+          <t>ORG008</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Permanent Human Rights defense Committee (CDH)</t>
+          <t>AIDS Healthcare Foundation (AHF)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Comite permanente por la defensa de los derechos humanos (CDH)</t>
+          <t>AIDS Healthcare Foundation</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>CDH</t>
+          <t>AHF</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -8942,27 +8957,27 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ORG215</t>
+          <t>ORG172</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Red Cross Uruguay</t>
+          <t>Permanent Human Rights defense Committee (CDH)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Cruz Roja Uruguay</t>
+          <t>Comite permanente por la defensa de los derechos humanos (CDH)</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Cruz Roja Uruguay</t>
+          <t>CDH</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Red Cross</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -8977,37 +8992,32 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ORG236</t>
+          <t>ORG215</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Terre des Hommes Suisse</t>
+          <t>Red Cross Uruguay</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Terre des Hommes Suisse</t>
+          <t>Cruz Roja Uruguay</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>TDH Suisse</t>
+          <t>Cruz Roja Uruguay</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Red Cross</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
       <c r="I238">
@@ -9017,27 +9027,27 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ORG171</t>
+          <t>ORG236</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Solidarity and Action Asociation</t>
+          <t>Terre des Hommes Suisse</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Asociación Solidaridad y Acción</t>
+          <t>Terre des Hommes Suisse</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>ASA</t>
+          <t>TDH Suisse</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -9047,32 +9057,32 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ORG258</t>
+          <t>ORG171</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Opportunity International/AGAPE</t>
+          <t>Solidarity and Action Asociation</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Opportunity International/AGAPE</t>
+          <t>Asociación Solidaridad y Acción</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>AGAPE</t>
+          <t>ASA</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -9087,42 +9097,47 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ORG210</t>
+          <t>ORG258</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>AsociacIón Misioneros de San Carlos Scalabrinianos</t>
+          <t>Opportunity International/AGAPE</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>AsociacIón Misioneros de San Carlos Scalabrinianos</t>
+          <t>Opportunity International/AGAPE</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>AsociacIón Scalabrinianos</t>
+          <t>AGAPE</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="I241">
@@ -9132,27 +9147,27 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ORG198</t>
+          <t>ORG210</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Asociación Aves</t>
+          <t>AsociacIón Misioneros de San Carlos Scalabrinianos</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Asociación Aves</t>
+          <t>AsociacIón Misioneros de San Carlos Scalabrinianos</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Aves</t>
+          <t>AsociacIón Scalabrinianos</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Civil Society</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -9167,27 +9182,27 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ORG040</t>
+          <t>ORG198</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Development Support Association - APOYAR</t>
+          <t>Asociación Aves</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Asociación de Apoyo al Desarrollo - APOYAR</t>
+          <t>Asociación Aves</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>APOYAR</t>
+          <t>Aves</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Civil Society</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -9202,37 +9217,32 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ORG071</t>
+          <t>ORG040</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Latin American Network of Non-Governmental Organizations of Persons with Disabilities and their Families (RIADIS)</t>
+          <t>Development Support Association - APOYAR</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Red Latinoamericana de Organizaciones no Gubernamentales de Personas con Discapacidad y sus Familias (RIADIS)</t>
+          <t>Asociación de Apoyo al Desarrollo - APOYAR</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>RIADIS</t>
+          <t>APOYAR</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I244">
@@ -9242,42 +9252,37 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ORG255</t>
+          <t>ORG071</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>CIR - Roraima Indigenous Council</t>
+          <t>Latin American Network of Non-Governmental Organizations of Persons with Disabilities and their Families (RIADIS)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>CIR - Conselho Indígena de Roraima</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>CIR - Conselho Indígena de Roraima</t>
+          <t>Red Latinoamericana de Organizaciones no Gubernamentales de Personas con Discapacidad y sus Familias (RIADIS)</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>CIR</t>
+          <t>RIADIS</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I245">
@@ -9287,32 +9292,42 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ORG060</t>
+          <t>ORG255</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Institute for Migration and Human Rights (IMDH)</t>
+          <t>CIR - Roraima Indigenous Council</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Instituto para las Migraciones y Derechos Humanos (IMDH)</t>
+          <t>CIR - Conselho Indígena de Roraima</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>CIR - Conselho Indígena de Roraima</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>IMDH</t>
+          <t>CIR</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I246">
@@ -9322,37 +9337,32 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ORG115</t>
+          <t>ORG060</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>United Nations Educational, Scientific and Cultural Organization (UNESCO)</t>
+          <t>Institute for Migration and Human Rights (IMDH)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Organización de las Naciones Unidas para la Educación, la Ciencia y la Cultura (UNESCO)</t>
+          <t>Instituto para las Migraciones y Derechos Humanos (IMDH)</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>UNESCO</t>
+          <t>IMDH</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I247">
@@ -9362,32 +9372,37 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ORG014</t>
+          <t>ORG115</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Bethany Christian Services</t>
+          <t>United Nations Educational, Scientific and Cultural Organization (UNESCO)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Bethany Christian Services</t>
+          <t>Organización de las Naciones Unidas para la Educación, la Ciencia y la Cultura (UNESCO)</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Bethany Christian Services</t>
+          <t>UNESCO</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I248">
@@ -9397,27 +9412,27 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ORG129</t>
+          <t>ORG014</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Venezuelan Civil Association in Paraguay</t>
+          <t>Bethany Christian Services</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Asociación Civil Venezolana en Paraguay</t>
+          <t>Bethany Christian Services</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Venezuelan Civil Association in Paraguay</t>
+          <t>Bethany Christian Services</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -9432,27 +9447,27 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ORG206</t>
+          <t>ORG129</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Humans Analytic</t>
+          <t>Venezuelan Civil Association in Paraguay</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Humans Analytic</t>
+          <t>Asociación Civil Venezolana en Paraguay</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Humans Analytic</t>
+          <t>Venezuelan Civil Association in Paraguay</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -9467,22 +9482,22 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ORG083</t>
+          <t>ORG206</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Organización Fuerza Internacional de Capellanía DDHH y DIH OFICA ICC</t>
+          <t>Humans Analytic</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Organización Fuerza Internacional de Capellanía DDHH y DIH OFICA ICC</t>
+          <t>Humans Analytic</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Organización Fuerza Internacional de Capellanía DDHH y DIH OFICA ICC</t>
+          <t>Humans Analytic</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -9502,27 +9517,27 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ORG197</t>
+          <t>ORG083</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Venezuelan Emigrant Foundation (FEV)</t>
+          <t>Organización Fuerza Internacional de Capellanía DDHH y DIH OFICA ICC</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Fundación de Emigrantes Venezolanos (FEV)</t>
+          <t>Organización Fuerza Internacional de Capellanía DDHH y DIH OFICA ICC</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>FEV</t>
+          <t>Organización Fuerza Internacional de Capellanía DDHH y DIH OFICA ICC</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -9537,37 +9552,32 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ORG245</t>
+          <t>ORG197</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>GOAL</t>
+          <t>Venezuelan Emigrant Foundation (FEV)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>GOAL</t>
+          <t>Fundación de Emigrantes Venezolanos (FEV)</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>GOAL</t>
+          <t>FEV</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
       <c r="I253">
@@ -9577,32 +9587,37 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ORG220</t>
+          <t>ORG245</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Instituto Félix Guattari</t>
+          <t>GOAL</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Instituto Félix Guattari</t>
+          <t>GOAL</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Instituto Félix Guattari</t>
+          <t>GOAL</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Civil Society</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I254">
@@ -9612,37 +9627,32 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ORG105</t>
+          <t>ORG220</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Social Assistance Foundation of the Christian Churches (FASIC)</t>
+          <t>Instituto Félix Guattari</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Fundación de Ayuda Social de las Iglesias Cristianas (FASIC)</t>
+          <t>Instituto Félix Guattari</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>FASIC</t>
+          <t>Instituto Félix Guattari</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>Civil Society</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>Chile</t>
         </is>
       </c>
       <c r="I255">
@@ -9652,32 +9662,37 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ORG062</t>
+          <t>ORG105</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>International Federation of the Red Cross (IFRC)</t>
+          <t>Social Assistance Foundation of the Christian Churches (FASIC)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Federación Internacional de la Cruz Roja (FIRC)</t>
+          <t>Fundación de Ayuda Social de las Iglesias Cristianas (FASIC)</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>FIRC</t>
+          <t>FASIC</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Red Cross</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Chile</t>
         </is>
       </c>
       <c r="I256">
@@ -9687,27 +9702,27 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ORG136</t>
+          <t>ORG062</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Family Planning Association of Trinidad and Tobago</t>
+          <t>International Federation of the Red Cross (IFRC)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Family Planning Association of Trinidad and Tobago</t>
+          <t>Federación Internacional de la Cruz Roja (FIRC)</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>FPATT</t>
+          <t>FIRC</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Red Cross</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -9722,27 +9737,22 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ORG137</t>
+          <t>ORG136</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ABV - Association of Good with Life</t>
+          <t>Family Planning Association of Trinidad and Tobago</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>ABV - Asociación del Bien con la Vida</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>ABV - Associação de Bem com a Vida</t>
+          <t>Family Planning Association of Trinidad and Tobago</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>ABV</t>
+          <t>FPATT</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -9762,32 +9772,32 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ORG147</t>
+          <t>ORG137</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Pastoral Service for Migrants National</t>
+          <t>ABV - Association of Good with Life</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Servicio Pastoral de Migrantes Nacional</t>
+          <t>ABV - Asociación del Bien con la Vida</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Serviço Pastoral dos Migrantes Nacional</t>
+          <t>ABV - Associação de Bem com a Vida</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>SPM</t>
+          <t>ABV</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -9802,27 +9812,32 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ORG126</t>
+          <t>ORG147</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>VenAruba Solidaria</t>
+          <t>Pastoral Service for Migrants National</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>VenAruba Solidaria</t>
+          <t>Servicio Pastoral de Migrantes Nacional</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Serviço Pastoral dos Migrantes Nacional</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>VenAruba Solidaria</t>
+          <t>SPM</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -9837,37 +9852,32 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ORG070</t>
+          <t>ORG126</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Joint United Nations Programme on HIV/AIDS (UNAIDS)</t>
+          <t>VenAruba Solidaria</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Programa Conjunto de las Naciones Unidas sobre el VIH/SIDA (ONUSIDA)</t>
+          <t>VenAruba Solidaria</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>UNAIDS</t>
+          <t>VenAruba Solidaria</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I261">
@@ -9877,32 +9887,37 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ORG219</t>
+          <t>ORG070</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Human Rights Defence Curaçao</t>
+          <t>Joint United Nations Programme on HIV/AIDS (UNAIDS)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Human Rights Defence Curaçao</t>
+          <t>Programa Conjunto de las Naciones Unidas sobre el VIH/SIDA (ONUSIDA)</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Human Rights Defence Curaçao</t>
+          <t>UNAIDS</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I262">
@@ -9912,22 +9927,22 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ORG169</t>
+          <t>ORG219</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Ecclesiastical Parish San Francisco</t>
+          <t>Human Rights Defence Curaçao</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Parroquia Eclesiástica San Francisco</t>
+          <t>Human Rights Defence Curaçao</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Parroquia Eclesiástica San Francisco</t>
+          <t>Human Rights Defence Curaçao</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -9947,27 +9962,27 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ORG033</t>
+          <t>ORG169</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ChildFund International</t>
+          <t>Ecclesiastical Parish San Francisco</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>ChildFund Internacional</t>
+          <t>Parroquia Eclesiástica San Francisco</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>ChildFund International</t>
+          <t>Parroquia Eclesiástica San Francisco</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -9982,27 +9997,27 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ORG180</t>
+          <t>ORG033</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Movimiento de Mujeres de El Oro</t>
+          <t>ChildFund International</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Movimiento de Mujeres de El Oro</t>
+          <t>ChildFund Internacional</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>MMO</t>
+          <t>ChildFund International</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -10017,27 +10032,27 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ORG082</t>
+          <t>ORG180</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Norwegian Refugee Council (NRC)</t>
+          <t>Movimiento de Mujeres de El Oro</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Consejo Noruego para los Refugiados (NRC)</t>
+          <t>Movimiento de Mujeres de El Oro</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>NRC</t>
+          <t>MMO</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -10052,35 +10067,70 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
+          <t>ORG082</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Norwegian Refugee Council (NRC)</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Consejo Noruego para los Refugiados (NRC)</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>NRC</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>INGO</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
           <t>ORG127</t>
         </is>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B268" t="inlineStr">
         <is>
           <t>VenEuropa</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
+      <c r="C268" t="inlineStr">
         <is>
           <t>VenEuropa</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr">
+      <c r="E268" t="inlineStr">
         <is>
           <t>VenEuropa</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
+      <c r="F268" t="inlineStr">
         <is>
           <t>INGO</t>
         </is>
       </c>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I267">
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I268">
         <v>0</v>
       </c>
     </row>

--- a/data-raw/RMRP_2021_AI_partners.xlsx
+++ b/data-raw/RMRP_2021_AI_partners.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I268"/>
+  <dimension ref="A1:I269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1487,7 +1487,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ORG266</t>
+          <t>ORG267</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -7142,37 +7142,42 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ORG053</t>
+          <t>ORG268</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Hebrew Immigrant Aid Society (HIAS)</t>
+          <t>IEB - Instituto Internacional de Educação do Brasil</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>HIAS</t>
+          <t>IEB - Instituto Internacional de Educação do Brasil</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>IEB - Instituto Internacional de Educação do Brasil</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>HIAS</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I188">
@@ -7182,22 +7187,22 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ORG017</t>
+          <t>ORG053</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CARE</t>
+          <t>Hebrew Immigrant Aid Society (HIAS)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>CARE</t>
+          <t>HIAS</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>CARE</t>
+          <t>HIAS</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -7222,37 +7227,37 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ORG139</t>
+          <t>ORG017</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Caritas Parana</t>
+          <t>CARE</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Caritas Parana</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Cáritas Paraná</t>
+          <t>CARE</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Cáritas Paraná</t>
+          <t>CARE</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I190">
@@ -7262,37 +7267,37 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ORG002</t>
+          <t>ORG139</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ACAPS</t>
+          <t>Caritas Parana</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ACAPS</t>
+          <t>Caritas Parana</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Cáritas Paraná</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>ACAPS</t>
+          <t>Cáritas Paraná</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I191">
@@ -7302,22 +7307,22 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ORG010</t>
+          <t>ORG002</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Americares Foundation</t>
+          <t>ACAPS</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Fundación Americares</t>
+          <t>ACAPS</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Americares Foundation</t>
+          <t>ACAPS</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -7327,7 +7332,12 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I192">
@@ -7337,27 +7347,27 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ORG209</t>
+          <t>ORG010</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Asociación ILLARI-AMANECER</t>
+          <t>Americares Foundation</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Asociación ILLARI-AMANECER</t>
+          <t>Fundación Americares</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>ILLARI-AMANECER</t>
+          <t>Americares Foundation</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -7372,32 +7382,27 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ORG141</t>
+          <t>ORG209</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Compassiva</t>
+          <t>Asociación ILLARI-AMANECER</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Compassiva</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Compassiva</t>
+          <t>Asociación ILLARI-AMANECER</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Compassiva</t>
+          <t>ILLARI-AMANECER</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Civil Society</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -7412,27 +7417,32 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ORG093</t>
+          <t>ORG141</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Red Cross Argentina</t>
+          <t>Compassiva</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Cruz Roja Argentina</t>
+          <t>Compassiva</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Compassiva</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Cruz Roja Argentina</t>
+          <t>Compassiva</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Red Cross</t>
+          <t>Civil Society</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -7447,27 +7457,27 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ORG162</t>
+          <t>ORG093</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Purik Huasi</t>
+          <t>Red Cross Argentina</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Purik Huasi</t>
+          <t>Cruz Roja Argentina</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Purik Huasi</t>
+          <t>Cruz Roja Argentina</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Red Cross</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7482,27 +7492,27 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ORG015</t>
+          <t>ORG162</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Blumont</t>
+          <t>Purik Huasi</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Blumont</t>
+          <t>Purik Huasi</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Blumont</t>
+          <t>Purik Huasi</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -7517,27 +7527,27 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ORG069</t>
+          <t>ORG015</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Jesuit Service for Migrants and Refugees (JSMR)</t>
+          <t>Blumont</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Servicio Jesuita a Migrantes y Refugiados (SJMR)</t>
+          <t>Blumont</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>JSMR</t>
+          <t>Blumont</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -7552,22 +7562,22 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ORG023</t>
+          <t>ORG069</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Caritas Rio de Janeiro</t>
+          <t>Jesuit Service for Migrants and Refugees (JSMR)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Cáritas Rio de Janeiro</t>
+          <t>Servicio Jesuita a Migrantes y Refugiados (SJMR)</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Caritas Rio de Janeiro</t>
+          <t>JSMR</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -7587,27 +7597,27 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ORG054</t>
+          <t>ORG023</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Human Rights Caribbean Foundation (HRC)</t>
+          <t>Caritas Rio de Janeiro</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Fundación Human Rights Caribbean (HRC)</t>
+          <t>Cáritas Rio de Janeiro</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>HRC</t>
+          <t>Caritas Rio de Janeiro</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -7622,22 +7632,22 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ORG098</t>
+          <t>ORG054</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>RET International</t>
+          <t>Human Rights Caribbean Foundation (HRC)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>RET Internacional</t>
+          <t>Fundación Human Rights Caribbean (HRC)</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>RET International</t>
+          <t>HRC</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -7647,12 +7657,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I201">
@@ -7662,27 +7667,22 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ORG142</t>
+          <t>ORG098</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>International Humanitarian Federation</t>
+          <t>RET International</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Federación internacional humanitaria</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>FFHI - Fraternidade - Federação Humanitária Internacional</t>
+          <t>RET Internacional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>FFHI</t>
+          <t>RET International</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -7692,7 +7692,12 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I202">
@@ -7702,27 +7707,32 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ORG211</t>
+          <t>ORG142</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Asociación Mutual Israelita Argentina</t>
+          <t>International Humanitarian Federation</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Asociación Mutual Israelita Argentina</t>
+          <t>Federación internacional humanitaria</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>FFHI - Fraternidade - Federação Humanitária Internacional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>AMIA</t>
+          <t>FFHI</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -7737,22 +7747,22 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ORG157</t>
+          <t>ORG211</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Pastoral Social Cáritas</t>
+          <t>Asociación Mutual Israelita Argentina</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Pastoral Social Cáritas</t>
+          <t>Asociación Mutual Israelita Argentina</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Pastoral Social Cáritas</t>
+          <t>AMIA</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -7772,27 +7782,27 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ORG193</t>
+          <t>ORG157</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Ending Violence Against Migrants</t>
+          <t>Pastoral Social Cáritas</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Ending Violence Against Migrants</t>
+          <t>Pastoral Social Cáritas</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>EVAM</t>
+          <t>Pastoral Social Cáritas</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -7807,27 +7817,27 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ORG090</t>
+          <t>ORG193</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Profamilia Association</t>
+          <t>Ending Violence Against Migrants</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Asociación Profamilia</t>
+          <t>Ending Violence Against Migrants</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Profamilia Association</t>
+          <t>EVAM</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -7842,22 +7852,22 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ORG009</t>
+          <t>ORG090</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Alas de Colibrí Foundation</t>
+          <t>Profamilia Association</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Fundación Alas de Colibrí</t>
+          <t>Asociación Profamilia</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Alas de Colibrí Foundation</t>
+          <t>Profamilia Association</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -7877,37 +7887,32 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ORG064</t>
+          <t>ORG009</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>International Organization for Migration (IOM)</t>
+          <t>Alas de Colibrí Foundation</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Organización Internacional para las Migraciones (OIM)</t>
+          <t>Fundación Alas de Colibrí</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>IOM</t>
+          <t>Alas de Colibrí Foundation</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I208">
@@ -7917,37 +7922,37 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ORG144</t>
+          <t>ORG064</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Mana Institute</t>
+          <t>International Organization for Migration (IOM)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Instituto de maná</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Instituto Mana</t>
+          <t>Organización Internacional para las Migraciones (OIM)</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Instituto Mana</t>
+          <t>IOM</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I209">
@@ -7957,37 +7962,37 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ORG084</t>
+          <t>ORG144</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Organization of Ibero-American States for Education, Science and Culture (OEI)</t>
+          <t>Mana Institute</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Organización de Estados Iberoamericanos para la Educación, la Ciencia y la Cultura (OEI)</t>
+          <t>Instituto de maná</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Instituto Mana</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>OEI</t>
+          <t>Instituto Mana</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
       <c r="I210">
@@ -7997,32 +8002,37 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ORG119</t>
+          <t>ORG084</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>United Nations Office for Project Services (UNOPS)</t>
+          <t>Organization of Ibero-American States for Education, Science and Culture (OEI)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Oficina de las Naciones Unidas de Servicios para Proyectos (UNOPS)</t>
+          <t>Organización de Estados Iberoamericanos para la Educación, la Ciencia y la Cultura (OEI)</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>UNOPS</t>
+          <t>OEI</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I211">
@@ -8032,22 +8042,22 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ORG117</t>
+          <t>ORG119</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>United Nations Food and Agricultural Organization (FAO)</t>
+          <t>United Nations Office for Project Services (UNOPS)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Organización de las Naciones Unidas para la Alimentación y la Agricultura (FAO)</t>
+          <t>Oficina de las Naciones Unidas de Servicios para Proyectos (UNOPS)</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>FAO</t>
+          <t>UNOPS</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -8067,27 +8077,27 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ORG199</t>
+          <t>ORG117</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Venezuelan Diaspora in the Dominican Depublic</t>
+          <t>United Nations Food and Agricultural Organization (FAO)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Diáspora Venezolana en República Dominicana</t>
+          <t>Organización de las Naciones Unidas para la Alimentación y la Agricultura (FAO)</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Diáspora Venezolana en República Dominicana</t>
+          <t>FAO</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Civil Society</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -8102,27 +8112,27 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ORG056</t>
+          <t>ORG199</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Idas y Vueltas Association</t>
+          <t>Venezuelan Diaspora in the Dominican Depublic</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Asociación Idas y Vueltas</t>
+          <t>Diáspora Venezolana en República Dominicana</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Idas y Vueltas Association</t>
+          <t>Diáspora Venezolana en República Dominicana</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Civil Society</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -8137,37 +8147,32 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ORG005</t>
+          <t>ORG056</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ActionAid</t>
+          <t>Idas y Vueltas Association</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Ayuda en Acción</t>
+          <t>Asociación Idas y Vueltas</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>ActionAid</t>
+          <t>Idas y Vueltas Association</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>Regional</t>
         </is>
       </c>
       <c r="I215">
@@ -8177,32 +8182,37 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ORG227</t>
+          <t>ORG005</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Servicio Ecuménico para la Dignidad Humana</t>
+          <t>ActionAid</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Servicio Ecuménico para la Dignidad Humana</t>
+          <t>Ayuda en Acción</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>SEDHU</t>
+          <t>ActionAid</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I216">
@@ -8212,42 +8222,32 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ORG266</t>
+          <t>ORG227</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Museu A CASA</t>
+          <t>Servicio Ecuménico para la Dignidad Humana</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Museu A CASA</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Museu A CASA</t>
+          <t>Servicio Ecuménico para la Dignidad Humana</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Museu A CASA</t>
+          <t>SEDHU</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>Brazil</t>
         </is>
       </c>
       <c r="I217">
@@ -8257,22 +8257,27 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ORG257</t>
+          <t>ORG266</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Fundación Las Golondrinas</t>
+          <t>Museu A CASA</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Fundación Las Golondrinas</t>
+          <t>Museu A CASA</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Museu A CASA</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Fundación Las Golondrinas</t>
+          <t>Museu A CASA</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -8287,7 +8292,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I218">
@@ -8297,32 +8302,37 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ORG225</t>
+          <t>ORG257</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Red regioanal LGTBI+</t>
+          <t>Fundación Las Golondrinas</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Red regioanal LGTBI+</t>
+          <t>Fundación Las Golondrinas</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Red regioanal LGTBI+</t>
+          <t>Fundación Las Golondrinas</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Civil Society</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="I219">
@@ -8332,32 +8342,27 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ORG138</t>
+          <t>ORG225</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Caritas Manaus</t>
+          <t>Red regioanal LGTBI+</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Caritas Manaus</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>Cáritas Manaus</t>
+          <t>Red regioanal LGTBI+</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Cáritas Manaus</t>
+          <t>Red regioanal LGTBI+</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>Civil Society</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -8372,27 +8377,32 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ORG152</t>
+          <t>ORG138</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>German Development Cooperation Agency GIZ</t>
+          <t>Caritas Manaus</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Agencia de Cooperación Alemana para el Desarrollo GIZ</t>
+          <t>Caritas Manaus</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Cáritas Manaus</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>GIZ</t>
+          <t>Cáritas Manaus</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -8407,37 +8417,32 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ORG238</t>
+          <t>ORG152</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Programa de Soporte a la autoayuda de personas seropositivas</t>
+          <t>German Development Cooperation Agency GIZ</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Programa de Soporte a la autoayuda de personas seropositivas</t>
+          <t>Agencia de Cooperación Alemana para el Desarrollo GIZ</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>PROSA</t>
+          <t>GIZ</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Civil Society</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
       <c r="I222">
@@ -8447,32 +8452,37 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ORG006</t>
+          <t>ORG238</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Adventist Development and Relief Agency (ADRA)</t>
+          <t>Programa de Soporte a la autoayuda de personas seropositivas</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Agencia Adventista de Desarollo y Recursos Asistenciales (ADRA)</t>
+          <t>Programa de Soporte a la autoayuda de personas seropositivas</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>ADRA</t>
+          <t>PROSA</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Civil Society</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I223">
@@ -8482,22 +8492,22 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ORG264</t>
+          <t>ORG006</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Pan American Development Foundation</t>
+          <t>Adventist Development and Relief Agency (ADRA)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Fundación Panamericana de Desarrollo</t>
+          <t>Agencia Adventista de Desarollo y Recursos Asistenciales (ADRA)</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>PADF</t>
+          <t>ADRA</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -8517,27 +8527,27 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ORG176</t>
+          <t>ORG264</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Fundación Mi Sangre</t>
+          <t>Pan American Development Foundation</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Fundación Mi Sangre</t>
+          <t>Fundación Panamericana de Desarrollo</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Fundación Mi Sangre</t>
+          <t>PADF</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -8552,22 +8562,22 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ORG092</t>
+          <t>ORG176</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Red con Migrantes y Refugiados</t>
+          <t>Fundación Mi Sangre</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Red con Migrantes y Refugiados</t>
+          <t>Fundación Mi Sangre</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Red con Migrantes y Refugiados</t>
+          <t>Fundación Mi Sangre</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -8587,27 +8597,27 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ORG061</t>
+          <t>ORG092</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>International Committee for the Development of People (CISP)</t>
+          <t>Red con Migrantes y Refugiados</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Comité Internacional para el Desarrollo de los Pueblos (CISP)</t>
+          <t>Red con Migrantes y Refugiados</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>CISP</t>
+          <t>Red con Migrantes y Refugiados</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -8622,27 +8632,27 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ORG170</t>
+          <t>ORG061</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Casa Hogar San José</t>
+          <t>International Committee for the Development of People (CISP)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Casa Hogar San José</t>
+          <t>Comité Internacional para el Desarrollo de los Pueblos (CISP)</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Casa Hogar San José</t>
+          <t>CISP</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -8657,27 +8667,22 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ORG254</t>
+          <t>ORG170</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Associação Hermanitos</t>
+          <t>Casa Hogar San José</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Associação Hermanitos</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>Associação Hermanitos</t>
+          <t>Casa Hogar San José</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Associação Hermanitos</t>
+          <t>Casa Hogar San José</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -8688,11 +8693,6 @@
       <c r="G229" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>Brazil</t>
         </is>
       </c>
       <c r="I229">
@@ -8702,22 +8702,27 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ORG262</t>
+          <t>ORG254</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Takuna Foundation</t>
+          <t>Associação Hermanitos</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Fundación Takuna</t>
+          <t>Associação Hermanitos</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Associação Hermanitos</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Takuna</t>
+          <t>Associação Hermanitos</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -8728,6 +8733,11 @@
       <c r="G230" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I230">
@@ -8737,27 +8747,22 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ORG140</t>
+          <t>ORG262</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Coletivo MOSAICO - Social, Environmental, Interactive, Cultural and Organizational Movement Association</t>
+          <t>Takuna Foundation</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Coletivo MOSAICO - Asociación del Movimiento Social, Ambiental, Interactivo, Cultural y Organizacional</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>Coletivo MOSAICO - Associação Movimento Socioambiental, Interativo, Cultural e Organizacional</t>
+          <t>Fundación Takuna</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Coletivo MOSAICO</t>
+          <t>Takuna</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -8777,27 +8782,32 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ORG031</t>
+          <t>ORG140</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Center for Studies and Solidarity with Latin America (CESAL)</t>
+          <t>Coletivo MOSAICO - Social, Environmental, Interactive, Cultural and Organizational Movement Association</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Centro de Estudios y Solidaridad con América Latina (CESAL)</t>
+          <t>Coletivo MOSAICO - Asociación del Movimiento Social, Ambiental, Interactivo, Cultural y Organizacional</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Coletivo MOSAICO - Associação Movimento Socioambiental, Interativo, Cultural e Organizacional</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>CESAL</t>
+          <t>Coletivo MOSAICO</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8812,22 +8822,22 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ORG085</t>
+          <t>ORG031</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>OXFAM</t>
+          <t>Center for Studies and Solidarity with Latin America (CESAL)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>OXFAM</t>
+          <t>Centro de Estudios y Solidaridad con América Latina (CESAL)</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>OXFAM</t>
+          <t>CESAL</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -8847,37 +8857,32 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ORG247</t>
+          <t>ORG085</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Red Cross Spain</t>
+          <t>OXFAM</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Cruz Roja Española</t>
+          <t>OXFAM</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Cruz Roja Española</t>
+          <t>OXFAM</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Red Cross</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
       <c r="I234">
@@ -8887,22 +8892,22 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ORG094</t>
+          <t>ORG247</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Red Cross Colombia</t>
+          <t>Red Cross Spain</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Cruz Roja Colombia</t>
+          <t>Cruz Roja Española</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Cruz Roja Colombia</t>
+          <t>Cruz Roja Española</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -8913,6 +8918,11 @@
       <c r="G235" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I235">
@@ -8922,27 +8932,27 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ORG008</t>
+          <t>ORG094</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>AIDS Healthcare Foundation (AHF)</t>
+          <t>Red Cross Colombia</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>AIDS Healthcare Foundation</t>
+          <t>Cruz Roja Colombia</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>AHF</t>
+          <t>Cruz Roja Colombia</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Red Cross</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -8957,27 +8967,27 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ORG172</t>
+          <t>ORG008</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Permanent Human Rights defense Committee (CDH)</t>
+          <t>AIDS Healthcare Foundation (AHF)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Comite permanente por la defensa de los derechos humanos (CDH)</t>
+          <t>AIDS Healthcare Foundation</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>CDH</t>
+          <t>AHF</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -8992,27 +9002,27 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ORG215</t>
+          <t>ORG172</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Red Cross Uruguay</t>
+          <t>Permanent Human Rights defense Committee (CDH)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Cruz Roja Uruguay</t>
+          <t>Comite permanente por la defensa de los derechos humanos (CDH)</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Cruz Roja Uruguay</t>
+          <t>CDH</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Red Cross</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -9027,37 +9037,32 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ORG236</t>
+          <t>ORG215</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Terre des Hommes Suisse</t>
+          <t>Red Cross Uruguay</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Terre des Hommes Suisse</t>
+          <t>Cruz Roja Uruguay</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>TDH Suisse</t>
+          <t>Cruz Roja Uruguay</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>Red Cross</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
       <c r="I239">
@@ -9067,27 +9072,27 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ORG171</t>
+          <t>ORG236</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Solidarity and Action Asociation</t>
+          <t>Terre des Hommes Suisse</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Asociación Solidaridad y Acción</t>
+          <t>Terre des Hommes Suisse</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>ASA</t>
+          <t>TDH Suisse</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -9097,32 +9102,32 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ORG258</t>
+          <t>ORG171</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Opportunity International/AGAPE</t>
+          <t>Solidarity and Action Asociation</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Opportunity International/AGAPE</t>
+          <t>Asociación Solidaridad y Acción</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>AGAPE</t>
+          <t>ASA</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -9137,42 +9142,47 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ORG210</t>
+          <t>ORG258</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>AsociacIón Misioneros de San Carlos Scalabrinianos</t>
+          <t>Opportunity International/AGAPE</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>AsociacIón Misioneros de San Carlos Scalabrinianos</t>
+          <t>Opportunity International/AGAPE</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>AsociacIón Scalabrinianos</t>
+          <t>AGAPE</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="I242">
@@ -9182,27 +9192,27 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ORG198</t>
+          <t>ORG210</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Asociación Aves</t>
+          <t>AsociacIón Misioneros de San Carlos Scalabrinianos</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Asociación Aves</t>
+          <t>AsociacIón Misioneros de San Carlos Scalabrinianos</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Aves</t>
+          <t>AsociacIón Scalabrinianos</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Civil Society</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -9217,27 +9227,27 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ORG040</t>
+          <t>ORG198</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Development Support Association - APOYAR</t>
+          <t>Asociación Aves</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Asociación de Apoyo al Desarrollo - APOYAR</t>
+          <t>Asociación Aves</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>APOYAR</t>
+          <t>Aves</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Civil Society</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -9252,37 +9262,32 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ORG071</t>
+          <t>ORG040</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Latin American Network of Non-Governmental Organizations of Persons with Disabilities and their Families (RIADIS)</t>
+          <t>Development Support Association - APOYAR</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Red Latinoamericana de Organizaciones no Gubernamentales de Personas con Discapacidad y sus Familias (RIADIS)</t>
+          <t>Asociación de Apoyo al Desarrollo - APOYAR</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>RIADIS</t>
+          <t>APOYAR</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I245">
@@ -9292,42 +9297,37 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ORG255</t>
+          <t>ORG071</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>CIR - Roraima Indigenous Council</t>
+          <t>Latin American Network of Non-Governmental Organizations of Persons with Disabilities and their Families (RIADIS)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>CIR - Conselho Indígena de Roraima</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>CIR - Conselho Indígena de Roraima</t>
+          <t>Red Latinoamericana de Organizaciones no Gubernamentales de Personas con Discapacidad y sus Familias (RIADIS)</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>CIR</t>
+          <t>RIADIS</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I246">
@@ -9337,32 +9337,42 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ORG060</t>
+          <t>ORG255</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Institute for Migration and Human Rights (IMDH)</t>
+          <t>CIR - Roraima Indigenous Council</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Instituto para las Migraciones y Derechos Humanos (IMDH)</t>
+          <t>CIR - Conselho Indígena de Roraima</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>CIR - Conselho Indígena de Roraima</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>IMDH</t>
+          <t>CIR</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I247">
@@ -9372,37 +9382,32 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ORG115</t>
+          <t>ORG060</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>United Nations Educational, Scientific and Cultural Organization (UNESCO)</t>
+          <t>Institute for Migration and Human Rights (IMDH)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Organización de las Naciones Unidas para la Educación, la Ciencia y la Cultura (UNESCO)</t>
+          <t>Instituto para las Migraciones y Derechos Humanos (IMDH)</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>UNESCO</t>
+          <t>IMDH</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I248">
@@ -9412,32 +9417,37 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ORG014</t>
+          <t>ORG115</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Bethany Christian Services</t>
+          <t>United Nations Educational, Scientific and Cultural Organization (UNESCO)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Bethany Christian Services</t>
+          <t>Organización de las Naciones Unidas para la Educación, la Ciencia y la Cultura (UNESCO)</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Bethany Christian Services</t>
+          <t>UNESCO</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I249">
@@ -9447,27 +9457,27 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ORG129</t>
+          <t>ORG014</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Venezuelan Civil Association in Paraguay</t>
+          <t>Bethany Christian Services</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Asociación Civil Venezolana en Paraguay</t>
+          <t>Bethany Christian Services</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Venezuelan Civil Association in Paraguay</t>
+          <t>Bethany Christian Services</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -9482,27 +9492,27 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ORG206</t>
+          <t>ORG129</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Humans Analytic</t>
+          <t>Venezuelan Civil Association in Paraguay</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Humans Analytic</t>
+          <t>Asociación Civil Venezolana en Paraguay</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Humans Analytic</t>
+          <t>Venezuelan Civil Association in Paraguay</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -9517,22 +9527,22 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ORG083</t>
+          <t>ORG206</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Organización Fuerza Internacional de Capellanía DDHH y DIH OFICA ICC</t>
+          <t>Humans Analytic</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Organización Fuerza Internacional de Capellanía DDHH y DIH OFICA ICC</t>
+          <t>Humans Analytic</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Organización Fuerza Internacional de Capellanía DDHH y DIH OFICA ICC</t>
+          <t>Humans Analytic</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -9552,27 +9562,27 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ORG197</t>
+          <t>ORG083</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Venezuelan Emigrant Foundation (FEV)</t>
+          <t>Organización Fuerza Internacional de Capellanía DDHH y DIH OFICA ICC</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Fundación de Emigrantes Venezolanos (FEV)</t>
+          <t>Organización Fuerza Internacional de Capellanía DDHH y DIH OFICA ICC</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>FEV</t>
+          <t>Organización Fuerza Internacional de Capellanía DDHH y DIH OFICA ICC</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -9587,37 +9597,32 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ORG245</t>
+          <t>ORG197</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>GOAL</t>
+          <t>Venezuelan Emigrant Foundation (FEV)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>GOAL</t>
+          <t>Fundación de Emigrantes Venezolanos (FEV)</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>GOAL</t>
+          <t>FEV</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
       <c r="I254">
@@ -9627,32 +9632,37 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ORG220</t>
+          <t>ORG245</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Instituto Félix Guattari</t>
+          <t>GOAL</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Instituto Félix Guattari</t>
+          <t>GOAL</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Instituto Félix Guattari</t>
+          <t>GOAL</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Civil Society</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Peru</t>
         </is>
       </c>
       <c r="I255">
@@ -9662,37 +9672,32 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ORG105</t>
+          <t>ORG220</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Social Assistance Foundation of the Christian Churches (FASIC)</t>
+          <t>Instituto Félix Guattari</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Fundación de Ayuda Social de las Iglesias Cristianas (FASIC)</t>
+          <t>Instituto Félix Guattari</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>FASIC</t>
+          <t>Instituto Félix Guattari</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>Civil Society</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>Chile</t>
         </is>
       </c>
       <c r="I256">
@@ -9702,32 +9707,37 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ORG062</t>
+          <t>ORG105</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>International Federation of the Red Cross (IFRC)</t>
+          <t>Social Assistance Foundation of the Christian Churches (FASIC)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Federación Internacional de la Cruz Roja (FIRC)</t>
+          <t>Fundación de Ayuda Social de las Iglesias Cristianas (FASIC)</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>FIRC</t>
+          <t>FASIC</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Red Cross</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Chile</t>
         </is>
       </c>
       <c r="I257">
@@ -9737,27 +9747,27 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ORG136</t>
+          <t>ORG062</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Family Planning Association of Trinidad and Tobago</t>
+          <t>International Federation of the Red Cross (IFRC)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Family Planning Association of Trinidad and Tobago</t>
+          <t>Federación Internacional de la Cruz Roja (FIRC)</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>FPATT</t>
+          <t>FIRC</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Red Cross</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -9772,27 +9782,22 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ORG137</t>
+          <t>ORG136</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ABV - Association of Good with Life</t>
+          <t>Family Planning Association of Trinidad and Tobago</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>ABV - Asociación del Bien con la Vida</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>ABV - Associação de Bem com a Vida</t>
+          <t>Family Planning Association of Trinidad and Tobago</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>ABV</t>
+          <t>FPATT</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -9812,32 +9817,32 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ORG147</t>
+          <t>ORG137</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Pastoral Service for Migrants National</t>
+          <t>ABV - Association of Good with Life</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Servicio Pastoral de Migrantes Nacional</t>
+          <t>ABV - Asociación del Bien con la Vida</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Serviço Pastoral dos Migrantes Nacional</t>
+          <t>ABV - Associação de Bem com a Vida</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>SPM</t>
+          <t>ABV</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Faith Based Organizations</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -9852,27 +9857,32 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ORG126</t>
+          <t>ORG147</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>VenAruba Solidaria</t>
+          <t>Pastoral Service for Migrants National</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>VenAruba Solidaria</t>
+          <t>Servicio Pastoral de Migrantes Nacional</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Serviço Pastoral dos Migrantes Nacional</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>VenAruba Solidaria</t>
+          <t>SPM</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>Faith Based Organizations</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -9887,37 +9897,32 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ORG070</t>
+          <t>ORG126</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Joint United Nations Programme on HIV/AIDS (UNAIDS)</t>
+          <t>VenAruba Solidaria</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Programa Conjunto de las Naciones Unidas sobre el VIH/SIDA (ONUSIDA)</t>
+          <t>VenAruba Solidaria</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>UNAIDS</t>
+          <t>VenAruba Solidaria</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>Regional</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I262">
@@ -9927,32 +9932,37 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ORG219</t>
+          <t>ORG070</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Human Rights Defence Curaçao</t>
+          <t>Joint United Nations Programme on HIV/AIDS (UNAIDS)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Human Rights Defence Curaçao</t>
+          <t>Programa Conjunto de las Naciones Unidas sobre el VIH/SIDA (ONUSIDA)</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Human Rights Defence Curaçao</t>
+          <t>UNAIDS</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Regional</t>
         </is>
       </c>
       <c r="I263">
@@ -9962,22 +9972,22 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ORG169</t>
+          <t>ORG219</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Ecclesiastical Parish San Francisco</t>
+          <t>Human Rights Defence Curaçao</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Parroquia Eclesiástica San Francisco</t>
+          <t>Human Rights Defence Curaçao</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Parroquia Eclesiástica San Francisco</t>
+          <t>Human Rights Defence Curaçao</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -9997,27 +10007,27 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ORG033</t>
+          <t>ORG169</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ChildFund International</t>
+          <t>Ecclesiastical Parish San Francisco</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>ChildFund Internacional</t>
+          <t>Parroquia Eclesiástica San Francisco</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>ChildFund International</t>
+          <t>Parroquia Eclesiástica San Francisco</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -10032,27 +10042,27 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ORG180</t>
+          <t>ORG033</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Movimiento de Mujeres de El Oro</t>
+          <t>ChildFund International</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Movimiento de Mujeres de El Oro</t>
+          <t>ChildFund Internacional</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>MMO</t>
+          <t>ChildFund International</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>NNGO</t>
+          <t>INGO</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -10067,27 +10077,27 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ORG082</t>
+          <t>ORG180</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Norwegian Refugee Council (NRC)</t>
+          <t>Movimiento de Mujeres de El Oro</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Consejo Noruego para los Refugiados (NRC)</t>
+          <t>Movimiento de Mujeres de El Oro</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>NRC</t>
+          <t>MMO</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>INGO</t>
+          <t>NNGO</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -10102,35 +10112,70 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
+          <t>ORG082</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Norwegian Refugee Council (NRC)</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Consejo Noruego para los Refugiados (NRC)</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>NRC</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>INGO</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
           <t>ORG127</t>
         </is>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B269" t="inlineStr">
         <is>
           <t>VenEuropa</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
+      <c r="C269" t="inlineStr">
         <is>
           <t>VenEuropa</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr">
+      <c r="E269" t="inlineStr">
         <is>
           <t>VenEuropa</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
+      <c r="F269" t="inlineStr">
         <is>
           <t>INGO</t>
         </is>
       </c>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I268">
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I269">
         <v>0</v>
       </c>
     </row>
